--- a/data_issues.xlsx
+++ b/data_issues.xlsx
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8727,17 +8727,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O2023-0005283</t>
+          <t>O2023-0005857</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130039</t>
+          <t>Handicapped Parking Permit No. 126162 - amend</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5A9E5733-156A-EE11-9AE6-001DD80977D6</t>
+          <t>507279D5-C27D-EE11-8178-001DD8095243</t>
         </is>
       </c>
     </row>
@@ -8747,17 +8747,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O2023-0005394</t>
+          <t>Or2023-0004271</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130769</t>
+          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5DD817BC-C76D-EE11-8DEF-001DD804ECCD</t>
+          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -8767,17 +8767,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O2023-0005417</t>
+          <t>Or2023-0004507</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 131342</t>
+          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>77913CF0-CE6D-EE11-8DEF-001DD804ECCD</t>
+          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
         </is>
       </c>
     </row>
@@ -8787,17 +8787,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Or2023-0004271</t>
+          <t>R2023-0001022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
+          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
+          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
         </is>
       </c>
     </row>
@@ -8807,17 +8807,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Or2023-0004507</t>
+          <t>R2023-0002266</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Congratulations extended to Lois Davis on 91st birthday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
+          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
         </is>
       </c>
     </row>
@@ -8827,17 +8827,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R2023-0001022</t>
+          <t>R2023-0003337</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Congratulations extended to Charles Hampton 85th birthday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
+          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -8847,17 +8847,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R2023-0002266</t>
+          <t>R2023-0004106</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Congratulations extended to Lois Davis on 91st birthday</t>
+          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
+          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -8867,17 +8867,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R2023-0003337</t>
+          <t>R2023-0004537</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Congratulations extended to Charles Hampton 85th birthday</t>
+          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
+          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
         </is>
       </c>
     </row>
@@ -8887,17 +8887,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R2023-0004106</t>
+          <t>R2023-0004884</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
+          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
+          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R2023-0004537</t>
+          <t>R2023-0005530</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
+          <t>Tribute to late Brent R. Hamlet</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
+          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
         </is>
       </c>
     </row>
@@ -8927,17 +8927,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R2023-0004884</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -8947,77 +8947,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R2023-0005530</t>
+          <t>SO2023-0001994</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tribute to late Brent R. Hamlet</t>
+          <t>Vehicle weight limitations - 5 tons - establish</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SO2023-0001717</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SO2023-0001994</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Vehicle weight limitations - 5 tons - establish</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>CAFA74C1-4511-EE11-8F6C-001DD806D3F2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SO2023-0005042</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Acquisition of property from Albertsons Companies, Inc. at 11414 S Halsted St including northwest corner of 115th and Halsted St to establish and operate migrant shelter</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>7006057A-0C63-EE11-BE6E-001DD80523DD</t>
         </is>
       </c>
     </row>
@@ -32236,7 +32176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G602"/>
+  <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32642,17 +32582,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Recommended Do Not Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Committee on Finance</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -32677,17 +32617,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended Do Not Pass</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Finance</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -33867,17 +33807,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -33902,17 +33842,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -34567,7 +34507,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Recommend to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -34602,12 +34542,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Refer</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -34637,7 +34577,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Recommend to Pass</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -34672,12 +34612,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Refer</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -36142,17 +36082,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -36177,17 +36117,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -36842,7 +36782,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -36877,7 +36817,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -39678,17 +39618,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -39713,17 +39653,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -39818,17 +39758,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -39853,17 +39793,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -40098,17 +40038,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -40133,17 +40073,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -40238,17 +40178,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -40273,17 +40213,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -40308,17 +40248,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -40343,17 +40283,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -40623,17 +40563,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -40658,17 +40598,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -40693,17 +40633,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -40728,17 +40668,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -40903,17 +40843,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -40938,17 +40878,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -41323,17 +41263,17 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -41358,17 +41298,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -41463,17 +41403,17 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -41498,17 +41438,17 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -41533,17 +41473,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -41568,17 +41508,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -41603,17 +41543,17 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -41638,17 +41578,17 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -41673,17 +41613,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -41708,17 +41648,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -41743,17 +41683,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -41778,17 +41718,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -41813,17 +41753,17 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -41848,17 +41788,17 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -41883,17 +41823,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -41918,17 +41858,17 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -41988,17 +41928,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -42023,17 +41963,17 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -42058,17 +41998,17 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -42093,17 +42033,17 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -42128,17 +42068,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -42163,17 +42103,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -42268,17 +42208,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -42303,17 +42243,17 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -42373,17 +42313,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -42408,17 +42348,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -42583,17 +42523,17 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -42618,17 +42558,17 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -42723,17 +42663,17 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -42758,17 +42698,17 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -42793,17 +42733,17 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -42828,17 +42768,17 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -42933,17 +42873,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -42968,17 +42908,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -43003,17 +42943,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -43038,17 +42978,17 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -43073,17 +43013,17 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -43108,17 +43048,17 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -43143,17 +43083,17 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -43178,17 +43118,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -43213,17 +43153,17 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -43248,17 +43188,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -43283,17 +43223,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -43318,17 +43258,17 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -44649,17 +44589,17 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -44684,17 +44624,17 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -47474,32 +47414,32 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>O2023-0005186</t>
+          <t>O2023-0005105</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Time fixed for next City Council Meeting October 16, 2023, at 9:45 A.M., Council Chamber</t>
+          <t>Transfer of funds within Committee on Ethics and Government Oversight for Year 2023</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>EDA4DB4F-6D68-EE11-9AE6-001DD80977D6</t>
+          <t>D017F8D8-5E64-EE11-BE6E-001DD805248F</t>
         </is>
       </c>
     </row>
@@ -47509,32 +47449,32 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>O2023-0005300</t>
+          <t>O2023-0005120</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Time fixed for next City Council Meeting November 1, 2023, at 10:00 A.M., Council Chamber</t>
+          <t>Transfer of funds within Committee on Committees and Rules for year 2023</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>F8205599-3C6C-EE11-8DEF-001DD804E693</t>
+          <t>6D249946-7967-EE11-8DEF-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -47544,32 +47484,32 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>O2023-0005301</t>
+          <t>O2023-0005186</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 16-N at 6702-6760 W 65th St - App No. A-8836</t>
+          <t>Time fixed for next City Council Meeting October 16, 2023, at 9:45 A.M., Council Chamber</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>B4DE80CD-466C-EE11-8DEF-001DD804E2C5</t>
+          <t>EDA4DB4F-6D68-EE11-9AE6-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -47579,17 +47519,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>O2023-0005309</t>
+          <t>O2023-0005300</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>No Parking Tow Zone at E 74th St (east side) from 30 ft. north of E Balbo Dr to 20 ft. north</t>
+          <t>Time fixed for next City Council Meeting November 1, 2023, at 10:00 A.M., Council Chamber</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -47599,12 +47539,12 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>9A804FD3-636C-EE11-8DEF-001DD804E2C5</t>
+          <t>F8205599-3C6C-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -47614,32 +47554,32 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>O2023-0005310</t>
+          <t>O2023-0005301</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>No Parking Standing Zone at 4747-4749 N Sawyer Ave</t>
+          <t>Zoning Reclassification Map No. 16-N at 6702-6760 W 65th St - App No. A-8836</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>A90072D1-646C-EE11-8DEF-001DD804E2C5</t>
+          <t>B4DE80CD-466C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -47649,12 +47589,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>O2023-0005312</t>
+          <t>O2023-0005309</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Buffer zone(s) for residential permit parking at 1142-1347 S Michigan Ave - Zone 1675 - amend</t>
+          <t>No Parking Tow Zone at E 74th St (east side) from 30 ft. north of E Balbo Dr to 20 ft. north</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -47674,7 +47614,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>AB328DEE-656C-EE11-8DEF-001DD804E2C5</t>
+          <t>9A804FD3-636C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -47684,12 +47624,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>O2023-0005351</t>
+          <t>O2023-0005310</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Residential Permit Parking at 945-979 W 37th Pl - Zone 536 - amend</t>
+          <t>No Parking Standing Zone at 4747-4749 N Sawyer Ave</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -47709,7 +47649,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>39906C54-B56D-EE11-8DEF-001DD804E693</t>
+          <t>A90072D1-646C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -47719,12 +47659,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>O2023-0005352</t>
+          <t>O2023-0005312</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Residential permit parking at 2543 S Hillock Ave - Zone 157 - amend</t>
+          <t>Buffer zone(s) for residential permit parking at 1142-1347 S Michigan Ave - Zone 1675 - amend</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -47744,7 +47684,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>3433A61B-B66D-EE11-8DEF-001DD804E693</t>
+          <t>AB328DEE-656C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -47754,12 +47694,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>O2023-0005354</t>
+          <t>O2023-0005351</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Residential permit parking at 1401-1599 W Congress Pkwy - south side</t>
+          <t>Residential Permit Parking at 945-979 W 37th Pl - Zone 536 - amend</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -47779,7 +47719,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>BEDDBD58-B76D-EE11-8DEF-001DD804E693</t>
+          <t>39906C54-B56D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -47789,12 +47729,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>O2023-0005356</t>
+          <t>O2023-0005352</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Repeal residential permit parking at 5100-5199 N Neva Ave - Zone 59 - both sides</t>
+          <t>Residential permit parking at 2543 S Hillock Ave - Zone 157 - amend</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -47814,7 +47754,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>E9F9EB4D-B96D-EE11-8DEF-001DD804E693</t>
+          <t>3433A61B-B66D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -47824,17 +47764,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>O2023-0005391</t>
+          <t>O2023-0005354</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130332</t>
+          <t>Residential permit parking at 1401-1599 W Congress Pkwy - south side</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -47849,7 +47789,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>DA22C4F6-C66D-EE11-8DEF-001DD804ECCD</t>
+          <t>BEDDBD58-B76D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -47859,12 +47799,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>O2023-0005391</t>
+          <t>O2023-0005356</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130332</t>
+          <t>Repeal residential permit parking at 5100-5199 N Neva Ave - Zone 59 - both sides</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -47884,7 +47824,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>DA22C4F6-C66D-EE11-8DEF-001DD804ECCD</t>
+          <t>E9F9EB4D-B96D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -47894,17 +47834,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>O2023-0005579</t>
+          <t>O2023-0005391</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Amendment No. 3 to Imani Senior Village Phase 1 LLC Redevelopment at 9621 S Cottage Grove Ave, replacing Exhibit A, previously amended, now modifying Housing and Urban Development (HUD) loan term and interest rate</t>
+          <t>Handicapped Parking Permit No. 130332</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -47914,12 +47854,12 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>4CF1E67D-2674-EE11-8DEE-001DD8051B63</t>
+          <t>DA22C4F6-C66D-EE11-8DEF-001DD804ECCD</t>
         </is>
       </c>
     </row>
@@ -47929,12 +47869,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>O2023-0005656</t>
+          <t>O2023-0005391</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Parking meters at  W North Ave from N Western Ave to N Leavitt St</t>
+          <t>Handicapped Parking Permit No. 130332</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -47949,12 +47889,12 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>F5CED165-3E77-EE11-9AE5-001DD804D22B</t>
+          <t>DA22C4F6-C66D-EE11-8DEF-001DD804ECCD</t>
         </is>
       </c>
     </row>
@@ -47964,12 +47904,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>O2023-0005657</t>
+          <t>O2023-0005579</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Speed limitation at N Rockwell St from W Fullerton Ave to W Logan Blvd - 20 mph</t>
+          <t>Amendment No. 3 to Imani Senior Village Phase 1 LLC Redevelopment at 9621 S Cottage Grove Ave, replacing Exhibit A, previously amended, now modifying Housing and Urban Development (HUD) loan term and interest rate</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -47984,12 +47924,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>602B756A-3F77-EE11-9AE5-001DD804D430</t>
+          <t>4CF1E67D-2674-EE11-8DEE-001DD8051B63</t>
         </is>
       </c>
     </row>
@@ -47999,12 +47939,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>O2023-0005658</t>
+          <t>O2023-0005656</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Speed limitation at N Noble St from W Erie St to W Hubbard St - 20 mph</t>
+          <t>Parking meters at  W North Ave from N Western Ave to N Leavitt St</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -48024,7 +47964,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>8DC605DF-4077-EE11-9AE5-001DD804D430</t>
+          <t>F5CED165-3E77-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48034,12 +47974,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>O2023-0005659</t>
+          <t>O2023-0005657</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Speed limitation at W Augusta Blvd from N Oakley Blvd to N Noble St - 20 mph</t>
+          <t>Speed limitation at N Rockwell St from W Fullerton Ave to W Logan Blvd - 20 mph</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -48059,7 +47999,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>89655B8F-4177-EE11-9AE5-001DD804D430</t>
+          <t>602B756A-3F77-EE11-9AE5-001DD804D430</t>
         </is>
       </c>
     </row>
@@ -48069,12 +48009,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>O2023-0005660</t>
+          <t>O2023-0005658</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Speed limitation at N Leavitt St from W Addison St to W Ainslie St - 20 mph - amend</t>
+          <t>Speed limitation at N Noble St from W Erie St to W Hubbard St - 20 mph</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -48094,7 +48034,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>B0F088AD-4277-EE11-9AE5-001DD804D430</t>
+          <t>8DC605DF-4077-EE11-9AE5-001DD804D430</t>
         </is>
       </c>
     </row>
@@ -48104,12 +48044,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>O2023-0005661</t>
+          <t>O2023-0005659</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Residential permit parking at N Mobile Ave, 2900 block - Zone No. 162 - amend</t>
+          <t>Speed limitation at W Augusta Blvd from N Oakley Blvd to N Noble St - 20 mph</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -48129,7 +48069,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>D3F30E54-4377-EE11-9AE5-001DD804D430</t>
+          <t>89655B8F-4177-EE11-9AE5-001DD804D430</t>
         </is>
       </c>
     </row>
@@ -48139,12 +48079,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>O2023-0005662</t>
+          <t>O2023-0005660</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 931 E 42nd Pl</t>
+          <t>Speed limitation at N Leavitt St from W Addison St to W Ainslie St - 20 mph - amend</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -48164,7 +48104,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>EBD58EFC-4377-EE11-9AE5-001DD804D22B</t>
+          <t>B0F088AD-4277-EE11-9AE5-001DD804D430</t>
         </is>
       </c>
     </row>
@@ -48174,12 +48114,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>O2023-0005663</t>
+          <t>O2023-0005661</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 3420 S Giles Ave</t>
+          <t>Residential permit parking at N Mobile Ave, 2900 block - Zone No. 162 - amend</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -48199,7 +48139,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>3C148E95-4477-EE11-9AE5-001DD804D22B</t>
+          <t>D3F30E54-4377-EE11-9AE5-001DD804D430</t>
         </is>
       </c>
     </row>
@@ -48209,12 +48149,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>O2023-0005704</t>
+          <t>O2023-0005662</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at N Melvina Ave and W Cornelia Ave - All-Way Stop</t>
+          <t>Handicapped permit parking at 931 E 42nd Pl</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -48234,7 +48174,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>B59DD41B-BA78-EE11-9AE5-001DD804D22B</t>
+          <t>EBD58EFC-4377-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48244,12 +48184,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>O2023-0005705</t>
+          <t>O2023-0005663</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at 1810 W Norwood St - Reserved Disabled Parking</t>
+          <t>Handicapped permit parking at 3420 S Giles Ave</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -48269,7 +48209,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>8CFCB92D-BB78-EE11-9AE5-001DD804D22B</t>
+          <t>3C148E95-4477-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48279,12 +48219,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>O2023-0005706</t>
+          <t>O2023-0005704</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at 1810 W Norwood St</t>
+          <t>Traffic sign(s)/signal(s) at N Melvina Ave and W Cornelia Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -48304,7 +48244,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2783CC40-BC78-EE11-9AE5-001DD804D22B</t>
+          <t>B59DD41B-BA78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48314,12 +48254,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>O2023-0005708</t>
+          <t>O2023-0005705</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. DK89093</t>
+          <t>Traffic sign(s)/signal(s) at 1810 W Norwood St - Reserved Disabled Parking</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -48339,7 +48279,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>B8A78DFA-BC78-EE11-9AE5-001DD804D22B</t>
+          <t>8CFCB92D-BB78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48349,12 +48289,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>O2023-0005710</t>
+          <t>O2023-0005706</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Loading/Standing/Tow Zone(s) at 3121 N Rockwell St - amend</t>
+          <t>Traffic sign(s)/signal(s) at 1810 W Norwood St</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -48374,7 +48314,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>393C0405-BE78-EE11-9AE5-001DD804D22B</t>
+          <t>2783CC40-BC78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48384,12 +48324,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>O2023-0005713</t>
+          <t>O2023-0005708</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Loading/Standing/Tow Zone(s) at 3941-3943 N Kostner Ave</t>
+          <t>Handicapped Parking Permit No. DK89093</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -48409,7 +48349,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>E2D3D840-BF78-EE11-9AE5-001DD804D22B</t>
+          <t>B8A78DFA-BC78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48419,12 +48359,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>O2023-0005794</t>
+          <t>O2023-0005710</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 1810 W Norwood St</t>
+          <t>Loading/Standing/Tow Zone(s) at 3121 N Rockwell St - amend</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -48444,7 +48384,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>8B675EDF-8A79-EE11-9AE5-001DD804D22B</t>
+          <t>393C0405-BE78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48454,17 +48394,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>OR2023-0001345</t>
+          <t>O2023-0005713</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W 62nd St from point 30 ft. east of S Kenneth Ave to point 40 ft. east thereof - 2 percent Disabled Reserve Parking</t>
+          <t>Loading/Standing/Tow Zone(s) at 3941-3943 N Kostner Ave</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -48474,12 +48414,12 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>CAB3F9EF-7D10-EE11-8F6C-001DD806D641</t>
+          <t>E2D3D840-BF78-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48489,17 +48429,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Or2023-0002087</t>
+          <t>O2023-0005789</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W 32nd St and Stewart Ave - All-Way Stop</t>
+          <t>Residential permit parking at 1100-1143 N Mozart St - Zone 1633 - amend</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -48509,12 +48449,12 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>88EF9CB2-A912-EE11-8F6D-001DD806F88B</t>
+          <t>F0B2643E-1779-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48524,17 +48464,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Or2023-0002207</t>
+          <t>O2023-0005794</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 6084 S Archer Ave - Permit No. 101019938</t>
+          <t>Handicapped permit parking at 1810 W Norwood St</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -48544,12 +48484,12 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>C1DC99FD-AB16-EE11-8F6D-001DD806F9D9</t>
+          <t>8B675EDF-8A79-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -48559,17 +48499,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Or2023-0002678</t>
+          <t>O2023-0005837</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Residential permit parking at 1700-1998 and 1701-1999 N Stockton Dr - Zone No. 142</t>
+          <t>Corrections and revisions to 2024 Budget Recommendations and text portion</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -48579,12 +48519,12 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>3E022CF4-4E1F-EE11-8F6C-001DD809B9F5</t>
+          <t>0B7845DA-EF7C-EE11-8178-001DD8095BBA</t>
         </is>
       </c>
     </row>
@@ -48594,17 +48534,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Or2023-0002679</t>
+          <t>O2023-0005837</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Residential permit parking at 2000-2398 and 2001-2399 N Stockton Dr - Zone No. 143</t>
+          <t>Corrections and revisions to 2024 Budget Recommendations and text portion</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -48614,12 +48554,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>7C6B7D7D-4F1F-EE11-8F6C-001DD809B9F5</t>
+          <t>0B7845DA-EF7C-EE11-8178-001DD8095BBA</t>
         </is>
       </c>
     </row>
@@ -48629,32 +48569,32 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Or2023-0002785</t>
+          <t>OR2023-0001345</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at N Sacramento Ave and W Jerome St - All-Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W 62nd St from point 30 ft. east of S Kenneth Ave to point 40 ft. east thereof - 2 percent Disabled Reserve Parking</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>F17CBF3A-6E22-EE11-8F6C-001DD809B9F5</t>
+          <t>CAB3F9EF-7D10-EE11-8F6C-001DD806D641</t>
         </is>
       </c>
     </row>
@@ -48664,32 +48604,32 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Or2023-0002839</t>
+          <t>Or2023-0002087</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 352 E Illinois St - Permit No. 101022150</t>
+          <t>Traffic sign(s)/signal(s) at W 32nd St and Stewart Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>AC06AFF0-6F25-EE11-9CBD-001DD804E555</t>
+          <t>88EF9CB2-A912-EE11-8F6D-001DD806F88B</t>
         </is>
       </c>
     </row>
@@ -48699,12 +48639,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Or2023-0002854</t>
+          <t>Or2023-0002207</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 352 E Illinois St - Permit No. 101022149</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 6084 S Archer Ave - Permit No. 101019938</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -48719,12 +48659,12 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>87CB12EB-7825-EE11-9CBD-001DD804E555</t>
+          <t>C1DC99FD-AB16-EE11-8F6D-001DD806F9D9</t>
         </is>
       </c>
     </row>
@@ -48734,12 +48674,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Or2023-0002876</t>
+          <t>Or2023-0002678</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at S Mayfield Ave and S Archer Ave - Two Hour Parking</t>
+          <t>Residential permit parking at 1700-1998 and 1701-1999 N Stockton Dr - Zone No. 142</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -48759,7 +48699,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>19220955-8525-EE11-9CBD-001DD804E144</t>
+          <t>3E022CF4-4E1F-EE11-8F6C-001DD809B9F5</t>
         </is>
       </c>
     </row>
@@ -48769,12 +48709,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Or2023-0002908</t>
+          <t>Or2023-0002679</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Residential permit parking at 4900-4999 W Winchester Ave</t>
+          <t>Residential permit parking at 2000-2398 and 2001-2399 N Stockton Dr - Zone No. 143</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -48794,7 +48734,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>BBE2171F-A525-EE11-9CBD-001DD804E144</t>
+          <t>7C6B7D7D-4F1F-EE11-8F6C-001DD809B9F5</t>
         </is>
       </c>
     </row>
@@ -48804,32 +48744,32 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Or2023-0002916</t>
+          <t>Or2023-0002785</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Residential permit parking at N St. Louis Ave from W Lyndale Ave to W Belden Ave</t>
+          <t>Traffic sign(s)/signal(s) at N Sacramento Ave and W Jerome St - All-Way Stop</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>45A09879-AC25-EE11-9CBD-001DD804E144</t>
+          <t>F17CBF3A-6E22-EE11-8F6C-001DD809B9F5</t>
         </is>
       </c>
     </row>
@@ -48839,32 +48779,32 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Or2023-0003106</t>
+          <t>Or2023-0002839</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1620 W 95th St - Permit No. 101024313</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 352 E Illinois St - Permit No. 101022150</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>5E982CFA-3532-EE11-BDF4-001DD8049DE6</t>
+          <t>AC06AFF0-6F25-EE11-9CBD-001DD804E555</t>
         </is>
       </c>
     </row>
@@ -48874,32 +48814,32 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Or2023-0003107</t>
+          <t>Or2023-0002854</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 5250 N Broadway - Permit No. 101020232</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 352 E Illinois St - Permit No. 101022149</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>7419A235-3832-EE11-BDF4-001DD804915C</t>
+          <t>87CB12EB-7825-EE11-9CBD-001DD804E555</t>
         </is>
       </c>
     </row>
@@ -48909,17 +48849,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Or2023-0003137</t>
+          <t>Or2023-0002876</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Residential permit parking at 5000-5099 W Altgeld St - Zone No. 2398 - amend</t>
+          <t>Traffic sign(s)/signal(s) at S Mayfield Ave and S Archer Ave - Two Hour Parking</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -48929,12 +48869,12 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>ACAD9F7B-5335-EE11-BDF4-001DD8301360</t>
+          <t>19220955-8525-EE11-9CBD-001DD804E144</t>
         </is>
       </c>
     </row>
@@ -48944,32 +48884,32 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Or2023-0003137</t>
+          <t>Or2023-0002908</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Residential permit parking at 5000-5099 W Altgeld St - Zone No. 2398 - amend</t>
+          <t>Residential permit parking at 4900-4999 W Winchester Ave</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>ACAD9F7B-5335-EE11-BDF4-001DD8301360</t>
+          <t>BBE2171F-A525-EE11-9CBD-001DD804E144</t>
         </is>
       </c>
     </row>
@@ -48979,32 +48919,32 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Or2023-0003366</t>
+          <t>Or2023-0002916</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2642 W Devon Ave - Permit No. 101025963</t>
+          <t>Residential permit parking at N St. Louis Ave from W Lyndale Ave to W Belden Ave</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>0A23C081-3D3C-EE11-BDF4-001DD80974AF</t>
+          <t>45A09879-AC25-EE11-9CBD-001DD804E144</t>
         </is>
       </c>
     </row>
@@ -49014,32 +48954,32 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Or2023-0003402</t>
+          <t>Or2023-0003106</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Residential permit parking at W Sunnyside Ave, 3200 block</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1620 W 95th St - Permit No. 101024313</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>3223F078-F83D-EE11-BDF4-001DD8097F7D</t>
+          <t>5E982CFA-3532-EE11-BDF4-001DD8049DE6</t>
         </is>
       </c>
     </row>
@@ -49049,12 +48989,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Or2023-0003402</t>
+          <t>Or2023-0003107</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Residential permit parking at W Sunnyside Ave, 3200 block</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 5250 N Broadway - Permit No. 101020232</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -49064,17 +49004,17 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>3223F078-F83D-EE11-BDF4-001DD8097F7D</t>
+          <t>7419A235-3832-EE11-BDF4-001DD804915C</t>
         </is>
       </c>
     </row>
@@ -49084,12 +49024,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Or2023-0003488</t>
+          <t>Or2023-0003137</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Residential permit parking at 4358 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley west, and wrap around 4359 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley east - Zone No. 1528 - extension</t>
+          <t>Residential permit parking at 5000-5099 W Altgeld St - Zone No. 2398 - amend</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -49109,7 +49049,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>066B7FCA-7943-EE11-BDF3-001DD8097665</t>
+          <t>ACAD9F7B-5335-EE11-BDF4-001DD8301360</t>
         </is>
       </c>
     </row>
@@ -49119,12 +49059,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Or2023-0003488</t>
+          <t>Or2023-0003137</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Residential permit parking at 4358 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley west, and wrap around 4359 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley east - Zone No. 1528 - extension</t>
+          <t>Residential permit parking at 5000-5099 W Altgeld St - Zone No. 2398 - amend</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -49144,7 +49084,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>066B7FCA-7943-EE11-BDF3-001DD8097665</t>
+          <t>ACAD9F7B-5335-EE11-BDF4-001DD8301360</t>
         </is>
       </c>
     </row>
@@ -49154,32 +49094,32 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Or2023-0003489</t>
+          <t>Or2023-0003366</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Vehicle weight limitation at S Hamilton Ave from W Garfield Blvd to W 58th St - 5 tons</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2642 W Devon Ave - Permit No. 101025963</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>DBD3F1CA-7A43-EE11-BDF3-001DD8097665</t>
+          <t>0A23C081-3D3C-EE11-BDF4-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49189,12 +49129,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Or2023-0003489</t>
+          <t>Or2023-0003402</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Vehicle weight limitation at S Hamilton Ave from W Garfield Blvd to W 58th St - 5 tons</t>
+          <t>Residential permit parking at W Sunnyside Ave, 3200 block</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -49214,7 +49154,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>DBD3F1CA-7A43-EE11-BDF3-001DD8097665</t>
+          <t>3223F078-F83D-EE11-BDF4-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -49224,12 +49164,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Or2023-0003493</t>
+          <t>Or2023-0003402</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Residential permit parking at 4600-4646 and 4601-4643 S Emerald Ave</t>
+          <t>Residential permit parking at W Sunnyside Ave, 3200 block</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -49249,7 +49189,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>AE7B4844-7D43-EE11-BDF3-001DD8097665</t>
+          <t>3223F078-F83D-EE11-BDF4-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -49259,12 +49199,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Or2023-0003493</t>
+          <t>Or2023-0003488</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Residential permit parking at 4600-4646 and 4601-4643 S Emerald Ave</t>
+          <t>Residential permit parking at 4358 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley west, and wrap around 4359 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley east - Zone No. 1528 - extension</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -49284,7 +49224,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>AE7B4844-7D43-EE11-BDF3-001DD8097665</t>
+          <t>066B7FCA-7943-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49294,32 +49234,32 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Or2023-0003870</t>
+          <t>Or2023-0003488</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 5237 N Broadway - Permit No. 101020740</t>
+          <t>Residential permit parking at 4358 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley west, and wrap around 4359 S Artesian Ave on north side of W 44th St from S Artesian Ave to first alley east - Zone No. 1528 - extension</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>65E9965E-3D48-EE11-BE6D-001DD8097F18</t>
+          <t>066B7FCA-7943-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49329,32 +49269,32 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Or2023-0003874</t>
+          <t>Or2023-0003489</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1806 N Damen Ave - Permit No. 101025227</t>
+          <t>Vehicle weight limitation at S Hamilton Ave from W Garfield Blvd to W 58th St - 5 tons</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>E80D88BB-E848-EE11-BE6D-001DD80974AF</t>
+          <t>DBD3F1CA-7A43-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49364,12 +49304,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Or2023-0003875</t>
+          <t>Or2023-0003489</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2228 N Clybourn Ave - Permit No. 101022424</t>
+          <t>Vehicle weight limitation at S Hamilton Ave from W Garfield Blvd to W 58th St - 5 tons</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -49379,17 +49319,17 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>4BDDA761-EA48-EE11-BE6D-001DD80974AF</t>
+          <t>DBD3F1CA-7A43-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49399,12 +49339,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Or2023-0003876</t>
+          <t>Or2023-0003493</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2011 N Damen Ave - Permit No. 101026321</t>
+          <t>Residential permit parking at 4600-4646 and 4601-4643 S Emerald Ave</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -49414,17 +49354,17 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>35BDF5B9-EB48-EE11-BE6D-001DD80974AF</t>
+          <t>AE7B4844-7D43-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49434,32 +49374,32 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Or2023-0003877</t>
+          <t>Or2023-0003493</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2647 N Elston Ave - Permit No. 101024669</t>
+          <t>Residential permit parking at 4600-4646 and 4601-4643 S Emerald Ave</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>4E4C0975-EC48-EE11-BE6D-001DD8097F7D</t>
+          <t>AE7B4844-7D43-EE11-BDF3-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -49469,12 +49409,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Or2023-0003933</t>
+          <t>Or2023-0003870</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 3700 S Morgan St - Permit No. 101018444</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 5237 N Broadway - Permit No. 101020740</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -49494,7 +49434,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>D8DB04D9-CE4C-EE11-BE6D-001DD8097E7B</t>
+          <t>65E9965E-3D48-EE11-BE6D-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -49504,32 +49444,32 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Or2023-0003994</t>
+          <t>Or2023-0003874</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 4840 N Marine Dr - Permit No. 101026256</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1806 N Damen Ave - Permit No. 101025227</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>05BC9103-C04D-EE11-BE6D-001DD80974AF</t>
+          <t>E80D88BB-E848-EE11-BE6D-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49539,32 +49479,32 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Or2023-0004009</t>
+          <t>Or2023-0003875</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 3960 W 26th St - Permit No. 101017076</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2228 N Clybourn Ave - Permit No. 101022424</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>A6A1831E-584E-EE11-BE6D-001DD8097F7D</t>
+          <t>4BDDA761-EA48-EE11-BE6D-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49574,12 +49514,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Or2023-0004043</t>
+          <t>Or2023-0003876</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 717 S Desplaines St - Permit No. 101011828</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2011 N Damen Ave - Permit No. 101026321</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -49599,7 +49539,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>5893E7D7-8B4E-EE11-BE6D-001DD80974AF</t>
+          <t>35BDF5B9-EB48-EE11-BE6D-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49609,12 +49549,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Or2023-0004071</t>
+          <t>Or2023-0003877</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029079</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2647 N Elston Ave - Permit No. 101024669</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -49634,7 +49574,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>2DDF501E-C650-EE11-BE6E-001DD8097692</t>
+          <t>4E4C0975-EC48-EE11-BE6D-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -49644,12 +49584,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Or2023-0004072</t>
+          <t>Or2023-0003933</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029078</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 3700 S Morgan St - Permit No. 101018444</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -49669,7 +49609,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>99279FB7-C650-EE11-BE6E-001DD8097692</t>
+          <t>D8DB04D9-CE4C-EE11-BE6D-001DD8097E7B</t>
         </is>
       </c>
     </row>
@@ -49679,32 +49619,32 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Or2023-0004073</t>
+          <t>Or2023-0003994</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029073</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 4840 N Marine Dr - Permit No. 101026256</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>131569BB-C750-EE11-BE6E-001DD8097692</t>
+          <t>05BC9103-C04D-EE11-BE6D-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49714,32 +49654,32 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Or2023-0004074</t>
+          <t>Or2023-0004009</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029075</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 3960 W 26th St - Permit No. 101017076</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>C469232A-C850-EE11-BE6E-001DD8097692</t>
+          <t>A6A1831E-584E-EE11-BE6D-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -49749,12 +49689,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Or2023-0004075</t>
+          <t>Or2023-0004043</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2232 W Wabash Ave - North elevation</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 717 S Desplaines St - Permit No. 101011828</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -49774,7 +49714,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>9365C3A5-C850-EE11-BE6E-001DD8097692</t>
+          <t>5893E7D7-8B4E-EE11-BE6D-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -49784,12 +49724,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Or2023-0004082</t>
+          <t>Or2023-0004071</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1631 S Michigan Ave - Permit No. 101026890</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029079</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -49809,7 +49749,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>540908D3-D550-EE11-BE6E-001DD8097692</t>
+          <t>2DDF501E-C650-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49819,12 +49759,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Or2023-0004086</t>
+          <t>Or2023-0004072</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 2707 N Clark St - Permit No. 100996946</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029078</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -49844,7 +49784,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>519E8BF1-E050-EE11-BE6E-001DD8097692</t>
+          <t>99279FB7-C650-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49854,12 +49794,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Or2023-0004090</t>
+          <t>Or2023-0004073</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1958 W 35th St - Permit No. 101025751</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029073</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -49879,7 +49819,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>A8CC9898-E850-EE11-BE6E-001DD8097692</t>
+          <t>131569BB-C750-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49889,12 +49829,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Or2023-0004113</t>
+          <t>Or2023-0004074</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Historical landmark fee waiver for property at 3402-3402.5 S Giles Ave</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1353 S Wabash Ave - Permit No. 101029075</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -49914,7 +49854,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>D47F501E-8C51-EE11-BE6E-001DD8097F7D</t>
+          <t>C469232A-C850-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49924,12 +49864,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Or2023-0004158</t>
+          <t>Or2023-0004075</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1001 W Chicago Ave - Permit No. 101023286</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2232 W Wabash Ave - North elevation</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -49949,7 +49889,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>AD69A291-5B52-EE11-BE6E-001DD80970E4</t>
+          <t>9365C3A5-C850-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49959,12 +49899,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Or2023-0004159</t>
+          <t>Or2023-0004082</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 1001 W Chicago Ave - Permit No. 101023287</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1631 S Michigan Ave - Permit No. 101026890</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -49984,7 +49924,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>B49F201E-5C52-EE11-BE6E-001DD80970E4</t>
+          <t>540908D3-D550-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -49994,32 +49934,32 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Or2023-0004193</t>
+          <t>Or2023-0004086</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W 32nd St and S Stewart Ave - All Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 2707 N Clark St - Permit No. 100996946</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>86067DEA-0653-EE11-BE6E-001DD8097692</t>
+          <t>519E8BF1-E050-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50029,32 +49969,32 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Or2023-0004194</t>
+          <t>Or2023-0004090</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at S Maplewood Ave and W Lexington St - All Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1958 W 35th St - Permit No. 101025751</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>F40B347F-0B53-EE11-BE6E-001DD8097692</t>
+          <t>A8CC9898-E850-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50064,12 +50004,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Or2023-0004194</t>
+          <t>Or2023-0004113</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at S Maplewood Ave and W Lexington St - All Way Stop</t>
+          <t>Historical landmark fee waiver for property at 3402-3402.5 S Giles Ave</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -50079,17 +50019,17 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>F40B347F-0B53-EE11-BE6E-001DD8097692</t>
+          <t>D47F501E-8C51-EE11-BE6E-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -50099,32 +50039,32 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Or2023-0004195</t>
+          <t>Or2023-0004158</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1001 W Chicago Ave - Permit No. 101023286</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>8E318639-0C53-EE11-BE6E-001DD8097692</t>
+          <t>AD69A291-5B52-EE11-BE6E-001DD80970E4</t>
         </is>
       </c>
     </row>
@@ -50134,12 +50074,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Or2023-0004195</t>
+          <t>Or2023-0004159</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 1001 W Chicago Ave - Permit No. 101023287</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -50149,17 +50089,17 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>8E318639-0C53-EE11-BE6E-001DD8097692</t>
+          <t>B49F201E-5C52-EE11-BE6E-001DD80970E4</t>
         </is>
       </c>
     </row>
@@ -50169,12 +50109,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Or2023-0004200</t>
+          <t>Or2023-0004193</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Wolfram St and N Cicero Ave - Stop Sign</t>
+          <t>Traffic sign(s)/signal(s) at W 32nd St and S Stewart Ave - All Way Stop</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -50194,7 +50134,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>D0746A00-1153-EE11-BE6E-001DD8097692</t>
+          <t>86067DEA-0653-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50204,32 +50144,32 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Or2023-0004200</t>
+          <t>Or2023-0004194</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Wolfram St and N Cicero Ave - Stop Sign</t>
+          <t>Traffic sign(s)/signal(s) at S Maplewood Ave and W Lexington St - All Way Stop</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>D0746A00-1153-EE11-BE6E-001DD8097692</t>
+          <t>F40B347F-0B53-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50239,12 +50179,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Or2023-0004201</t>
+          <t>Or2023-0004194</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Wolfram St (north side) and N Cicero Ave to first alley west thereof</t>
+          <t>Traffic sign(s)/signal(s) at S Maplewood Ave and W Lexington St - All Way Stop</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -50264,7 +50204,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>7E695ACB-1153-EE11-BE6E-001DD8097692</t>
+          <t>F40B347F-0B53-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50274,32 +50214,32 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Or2023-0004201</t>
+          <t>Or2023-0004195</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Wolfram St (north side) and N Cicero Ave to first alley west thereof</t>
+          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>7E695ACB-1153-EE11-BE6E-001DD8097692</t>
+          <t>8E318639-0C53-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50309,12 +50249,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Or2023-0004204</t>
+          <t>Or2023-0004195</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at N Nashville Ave and W Argyle St - All Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -50334,7 +50274,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>FA428232-1353-EE11-BE6E-001DD8097692</t>
+          <t>8E318639-0C53-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50344,32 +50284,32 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Or2023-0004204</t>
+          <t>Or2023-0004200</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at N Nashville Ave and W Argyle St - All Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W Wolfram St and N Cicero Ave - Stop Sign</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>FA428232-1353-EE11-BE6E-001DD8097692</t>
+          <t>D0746A00-1153-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50379,12 +50319,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Or2023-0004220</t>
+          <t>Or2023-0004200</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 6165 N Northwest Hwy - Permit No. 101023132</t>
+          <t>Traffic sign(s)/signal(s) at W Wolfram St and N Cicero Ave - Stop Sign</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -50394,17 +50334,17 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>11F6E07A-1F53-EE11-BE6E-001DD8097F18</t>
+          <t>D0746A00-1153-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50414,32 +50354,32 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Or2023-0004221</t>
+          <t>Or2023-0004201</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 6155 N Northwest Hwy - Permit No. 101023263</t>
+          <t>Traffic sign(s)/signal(s) at W Wolfram St (north side) and N Cicero Ave to first alley west thereof</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>E0FFF0CB-1F53-EE11-BE6E-001DD8097F18</t>
+          <t>7E695ACB-1153-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50449,12 +50389,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Or2023-0004228</t>
+          <t>Or2023-0004201</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Issuance of permits for sign(s)/signboard(s) at 520 N Michigan Ave - Permit No. 101024127</t>
+          <t>Traffic sign(s)/signal(s) at W Wolfram St (north side) and N Cicero Ave to first alley west thereof</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -50464,17 +50404,17 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>8E4B2CC6-2653-EE11-BE6E-001DD8097F18</t>
+          <t>7E695ACB-1153-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50484,12 +50424,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Or2023-0004271</t>
+          <t>Or2023-0004204</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
+          <t>Traffic sign(s)/signal(s) at N Nashville Ave and W Argyle St - All Way Stop</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -50504,12 +50444,12 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
+          <t>FA428232-1353-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50519,17 +50459,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Or2023-0004507</t>
+          <t>Or2023-0004204</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Traffic sign(s)/signal(s) at N Nashville Ave and W Argyle St - All Way Stop</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -50539,12 +50479,12 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
+          <t>FA428232-1353-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -50554,32 +50494,32 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Or2023-0004642</t>
+          <t>Or2023-0004220</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at N Olympia Ave and N Onarga Ave - Two-Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 6165 N Northwest Hwy - Permit No. 101023132</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>4DFA8062-4F5D-EE11-BE6E-001DD8306FC4</t>
+          <t>11F6E07A-1F53-EE11-BE6E-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -50589,32 +50529,32 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Or2023-0004644</t>
+          <t>Or2023-0004221</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Residential permit parking at 5400-5458 S Artesian Ave</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 6155 N Northwest Hwy - Permit No. 101023263</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>BE0857C5-515D-EE11-BE6E-001DD8306AD0</t>
+          <t>E0FFF0CB-1F53-EE11-BE6E-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -50624,32 +50564,32 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Or2023-0005307</t>
+          <t>Or2023-0004228</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Washington Blvd and N Lotus Ave - All-Way Stop</t>
+          <t>Issuance of permits for sign(s)/signboard(s) at 520 N Michigan Ave - Permit No. 101024127</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>6BBF4E76-5D6C-EE11-8DEF-001DD804E2C5</t>
+          <t>8E4B2CC6-2653-EE11-BE6E-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -50659,32 +50599,32 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Or2023-0005308</t>
+          <t>Or2023-0004271</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Traffic direction at W Wolfram St from Cicero Ave. to N. Long Ave - One-Way westerly - amend</t>
+          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>0273E096-5E6C-EE11-8DEF-001DD804E2C5</t>
+          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -50694,17 +50634,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Or2023-0005353</t>
+          <t>Or2023-0004507</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Residential permit parking at 5315-5326 S Lorel Ave - Zone 2412</t>
+          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -50714,12 +50654,12 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>098B37CF-B66D-EE11-8DEF-001DD804E693</t>
+          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
         </is>
       </c>
     </row>
@@ -50729,17 +50669,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Or2023-0005355</t>
+          <t>Or2023-0004642</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Residential permit parking at 2024-2110 N Parkside Ave - even side</t>
+          <t>Traffic sign(s)/signal(s) at N Olympia Ave and N Onarga Ave - Two-Way Stop</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -50754,7 +50694,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>B8E6830C-B86D-EE11-8DEF-001DD804E693</t>
+          <t>4DFA8062-4F5D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -50764,17 +50704,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Or2023-0005637</t>
+          <t>Or2023-0004644</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Tag day permit(s) for Ronald McDonald House Charities of Chicagoland and Northwest Indiana; and Planned Parenthood Federation of America, Inc.</t>
+          <t>Residential permit parking at 5400-5458 S Artesian Ave</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -50784,12 +50724,12 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>12EFAE74-2777-EE11-9AE5-001DD804D22B</t>
+          <t>BE0857C5-515D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -50799,17 +50739,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>R2023-0001022</t>
+          <t>Or2023-0005307</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Traffic sign(s)/signal(s) at W Washington Blvd and N Lotus Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -50819,12 +50759,12 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
+          <t>6BBF4E76-5D6C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -50834,32 +50774,32 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>R2023-0002224</t>
+          <t>Or2023-0005308</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Support for renewal of First Class 6(b) and Second Class 6(b) tax incentives for property at 4550 S Packers Ave</t>
+          <t>Traffic direction at W Wolfram St from Cicero Ave. to N. Long Ave - One-Way westerly - amend</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>Committee on Economic, Capital and Technology Development</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>8CC0E88C-6017-EE11-8F6D-001DD806F9D9</t>
+          <t>0273E096-5E6C-EE11-8DEF-001DD804E2C5</t>
         </is>
       </c>
     </row>
@@ -50869,32 +50809,32 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>R2023-0002929</t>
+          <t>Or2023-0005353</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Call for hearing(s) on expansion of access to mental health services</t>
+          <t>Residential permit parking at 5315-5326 S Lorel Ave - Zone 2412</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Committee on Health and Human Relations</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>3452C73E-4226-EE11-9965-001DD804E11C</t>
+          <t>098B37CF-B66D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -50904,17 +50844,17 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>R2023-0002940</t>
+          <t>Or2023-0005355</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Call for Chicago institutions of higher learning to establish department or office to aggressively work to increase Black student recruitment, enrollment and scholarship opportunities</t>
+          <t>Residential permit parking at 2024-2110 N Parkside Ave - even side</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -50929,7 +50869,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>D9C8FE94-4E26-EE11-9965-001DD804E9A5</t>
+          <t>B8E6830C-B86D-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -50939,12 +50879,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>R2023-0003064</t>
+          <t>Or2023-0005637</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Amendment to Salary Resolution regarding Chicago Police Department lateral and rehire agreement, health benefits, salary adjustments and salary schedule IT</t>
+          <t>Tag day permit(s) for Ronald McDonald House Charities of Chicagoland and Northwest Indiana; and Planned Parenthood Federation of America, Inc.</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -50954,17 +50894,17 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>CC2086F3-E827-EE11-9965-001DD804E11C</t>
+          <t>12EFAE74-2777-EE11-9AE5-001DD804D22B</t>
         </is>
       </c>
     </row>
@@ -50974,17 +50914,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>R2023-0004907</t>
+          <t>R2023-0001022</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Establishment of permanent Subcommittee of Revenue under Committee on Finance and appointment of Chair, Vice-Chair and members</t>
+          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Adopted</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -50994,12 +50934,12 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>EFDC9827-5261-EE11-BE6E-001DD8052E29</t>
+          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
         </is>
       </c>
     </row>
@@ -51009,32 +50949,32 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SCL2023-0002852</t>
+          <t>R2023-0002224</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Various small claims</t>
+          <t>Support for renewal of First Class 6(b) and Second Class 6(b) tax incentives for property at 4550 S Packers Ave</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Adopted</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Economic, Capital and Technology Development</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>2184FF5A-7625-EE11-9CBD-001DD804E11C</t>
+          <t>8CC0E88C-6017-EE11-8F6D-001DD806F9D9</t>
         </is>
       </c>
     </row>
@@ -51044,32 +50984,32 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>SO2023-0001245</t>
+          <t>R2023-0002929</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Chapter 2-56 regarding qualifications and appointment of Inspector General and Public Safety Deputy</t>
+          <t>Call for hearing(s) on expansion of access to mental health services</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Health and Human Relations</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>FA12A740-4E10-EE11-8F6C-001DD806D641</t>
+          <t>3452C73E-4226-EE11-9965-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -51079,32 +51019,32 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>SO2023-0001253</t>
+          <t>R2023-0002940</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Title 9 by adding new Chapter 9-116 entitled "Traffic Crash Review and Analysis"</t>
+          <t>Call for Chicago institutions of higher learning to establish department or office to aggressively work to increase Black student recruitment, enrollment and scholarship opportunities</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Adopted</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>E51C12E9-5710-EE11-8F6C-001DD806D641</t>
+          <t>D9C8FE94-4E26-EE11-9965-001DD804E9A5</t>
         </is>
       </c>
     </row>
@@ -51114,12 +51054,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SO2023-0001253</t>
+          <t>R2023-0003064</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Title 9 by adding new Chapter 9-116 entitled "Traffic Crash Review and Analysis"</t>
+          <t>Amendment to Salary Resolution regarding Chicago Police Department lateral and rehire agreement, health benefits, salary adjustments and salary schedule IT</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -51129,17 +51069,17 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>E51C12E9-5710-EE11-8F6C-001DD806D641</t>
+          <t>CC2086F3-E827-EE11-9965-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -51149,17 +51089,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SO2023-0001388</t>
+          <t>R2023-0004907</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Issuance of multi-family housing revenue bonds and other financial assistance to Boulevard Apartments Preservation, LP for acquisition and rehabilitation of affordable housing at 1930-1938 N Humboldt Blvd, 929-935 N Sacramento Ave and 2212-2214 N Sacramento Ave</t>
+          <t>Establishment of permanent Subcommittee of Revenue under Committee on Finance and appointment of Chair, Vice-Chair and members</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -51169,12 +51109,12 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>51757F59-8410-EE11-8F6C-001DD806D641</t>
+          <t>EFDC9827-5261-EE11-BE6E-001DD8052E29</t>
         </is>
       </c>
     </row>
@@ -51184,17 +51124,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SCL2023-0002852</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Various small claims</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -51204,12 +51144,12 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>2184FF5A-7625-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -51219,17 +51159,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SO2023-0001245</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Amendment of Municipal Code Chapter 2-56 regarding qualifications and appointment of Inspector General and Public Safety Deputy</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Recommend to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -51239,12 +51179,12 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>FA12A740-4E10-EE11-8F6C-001DD806D641</t>
         </is>
       </c>
     </row>
@@ -51254,32 +51194,32 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SO2023-0001253</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Amendment of Municipal Code Title 9 by adding new Chapter 9-116 entitled "Traffic Crash Review and Analysis"</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Refer</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Committee on Transportation and Public Way</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>E51C12E9-5710-EE11-8F6C-001DD806D641</t>
         </is>
       </c>
     </row>
@@ -51289,32 +51229,32 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SO2023-0001253</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Amendment of Municipal Code Title 9 by adding new Chapter 9-116 entitled "Traffic Crash Review and Analysis"</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>E51C12E9-5710-EE11-8F6C-001DD806D641</t>
         </is>
       </c>
     </row>
@@ -51324,32 +51264,32 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SO2023-0001388</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Issuance of multi-family housing revenue bonds and other financial assistance to Boulevard Apartments Preservation, LP for acquisition and rehabilitation of affordable housing at 1930-1938 N Humboldt Blvd, 929-935 N Sacramento Ave and 2212-2214 N Sacramento Ave</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Single Substitute</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>Committee on Transportation and Public Way</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>51757F59-8410-EE11-8F6C-001DD806D641</t>
         </is>
       </c>
     </row>
@@ -51359,17 +51299,17 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>SO2023-0001865</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-G at 1300 W Carroll Ave - App No. 20866</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -51379,12 +51319,12 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>22659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -51394,32 +51334,32 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SO2023-0001866</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 4-E at 45-79 E 18th St, 1801-1809 S Wabash Ave, 1800-1806 S Michigan Ave - App No. 21125</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Single Substitute</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Transportation and Public Way</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>24659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -51429,32 +51369,32 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>SO2023-0001868</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-G at 1030-1050 W North Ave/1604-1624 N Kingsbury St - App No. 22043T1</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Refer</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Transportation and Public Way</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>28659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -51464,17 +51404,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>SO2023-0001869</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 12-E at 5339-5353 S State St and 2-16 E 54th St - App No. 20951T1</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommend to Pass</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -51484,12 +51424,12 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2A659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -51499,17 +51439,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>SO2023-0001870</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-G at 357-359 N Green St - App No. 22103</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -51519,12 +51459,12 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>2D659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -51534,17 +51474,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>SO2023-0001870</t>
+          <t>SO2023-0001865</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-G at 357-359 N Green St - App No. 22103</t>
+          <t>Zoning Reclassification Map No. 1-G at 1300 W Carroll Ave - App No. 20866</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -51554,12 +51494,12 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>2D659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>22659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51569,12 +51509,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>SO2023-0001871</t>
+          <t>SO2023-0001866</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-F at 320 N Jefferson St, 650 W Wayman St, 740 W Fulton Market and 331 N Halsted St - App No. 22104</t>
+          <t>Zoning Reclassification Map No. 4-E at 45-79 E 18th St, 1801-1809 S Wabash Ave, 1800-1806 S Michigan Ave - App No. 21125</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -51589,12 +51529,12 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>2F659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>24659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51604,17 +51544,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>SO2023-0001872</t>
+          <t>SO2023-0001868</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-G at 1354 W Diversey Pkwy - App No. 22136</t>
+          <t>Zoning Reclassification Map No. 5-G at 1030-1050 W North Ave/1604-1624 N Kingsbury St - App No. 22043T1</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -51629,7 +51569,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>31659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>28659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51639,17 +51579,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>SO2023-0001872</t>
+          <t>SO2023-0001869</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-G at 1354 W Diversey Pkwy - App No. 22136</t>
+          <t>Zoning Reclassification Map No. 12-E at 5339-5353 S State St and 2-16 E 54th St - App No. 20951T1</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -51664,7 +51604,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>31659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>2A659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51674,17 +51614,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SO2023-0001873</t>
+          <t>SO2023-0001870</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 3-G at 1235-1237 N Ashland Ave - App No. 22142T1</t>
+          <t>Zoning Reclassification Map No. 1-G at 357-359 N Green St - App No. 22103</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -51699,7 +51639,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>33659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>2D659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51709,12 +51649,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SO2023-0001874</t>
+          <t>SO2023-0001870</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 3-G at 1257-1301 N Ashland Ave - App No. 22143T1</t>
+          <t>Zoning Reclassification Map No. 1-G at 357-359 N Green St - App No. 22103</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -51734,7 +51674,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>35659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>2D659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51744,12 +51684,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SO2023-0001876</t>
+          <t>SO2023-0001871</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Amendment of Statements 5 and 12 of Planned Development 1092 at N Franklin St and W Illinois St</t>
+          <t>Zoning Reclassification Map No. 1-F at 320 N Jefferson St, 650 W Wayman St, 740 W Fulton Market and 331 N Halsted St - App No. 22104</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -51769,7 +51709,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>39659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>2F659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51779,17 +51719,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>SO2023-0001881</t>
+          <t>SO2023-0001872</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-H at 1653-1739 W Webster Ave and 2075-2189 N Elston Ave - App No. 22154</t>
+          <t>Zoning Reclassification Map No. 7-G at 1354 W Diversey Pkwy - App No. 22136</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -51804,7 +51744,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>43659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>31659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51814,12 +51754,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>SO2023-0001882</t>
+          <t>SO2023-0001872</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-G at 1300-1328 W Lake St - App No. 22156</t>
+          <t>Zoning Reclassification Map No. 7-G at 1354 W Diversey Pkwy - App No. 22136</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -51839,7 +51779,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>45659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>31659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51849,12 +51789,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>SO2023-0001888</t>
+          <t>SO2023-0001873</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
+          <t>Zoning Reclassification Map No. 3-G at 1235-1237 N Ashland Ave - App No. 22142T1</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -51874,7 +51814,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>33659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51884,17 +51824,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>SO2023-0001888</t>
+          <t>SO2023-0001874</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
+          <t>Zoning Reclassification Map No. 3-G at 1257-1301 N Ashland Ave - App No. 22143T1</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -51909,7 +51849,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>35659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51919,17 +51859,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>SO2023-0001888</t>
+          <t>SO2023-0001876</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
+          <t>Amendment of Statements 5 and 12 of Planned Development 1092 at N Franklin St and W Illinois St</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -51944,7 +51884,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>39659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51954,12 +51894,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>SO2023-0001889</t>
+          <t>SO2023-0001881</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-I at 2412 W Belden Ave - App No. 22171T1</t>
+          <t>Zoning Reclassification Map No. 5-H at 1653-1739 W Webster Ave and 2075-2189 N Elston Ave - App No. 22154</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -51979,7 +51919,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>57659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>43659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -51989,12 +51929,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>SO2023-0001895</t>
+          <t>SO2023-0001882</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 20-K at 7901-8071 S Cicero Ave/4744-4760 W 81st St/4649-4711 W 79th St - App No. 22179</t>
+          <t>Zoning Reclassification Map No. 1-G at 1300-1328 W Lake St - App No. 22156</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -52014,7 +51954,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>64659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>45659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52024,17 +51964,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>SO2023-0001903</t>
+          <t>SO2023-0001888</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-H at 1924 W Grand Ave - App No. 22193T1</t>
+          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -52049,7 +51989,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>75659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52059,12 +51999,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>SO2023-0001906</t>
+          <t>SO2023-0001888</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-H at 1868-1878 N Milwaukee Ave - App No. 22197T1</t>
+          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -52084,7 +52024,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>7B659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52094,17 +52034,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>SO2023-0001907</t>
+          <t>SO2023-0001888</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 14-G at 6206 S Racine Ave - App No. 22070</t>
+          <t>Zoning Reclassification Map No. 7-H at 2940-2946 N Leavitt St - App No. 22166T1</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -52119,7 +52059,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>7D659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>53659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52129,17 +52069,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>SO2023-0001908</t>
+          <t>SO2023-0001889</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 3-G at 1440-1464 N Magnolia Ave/1241-1259 W Le Moyne St/1439-1461 N Elston Ave - App No. 22077T1</t>
+          <t>Zoning Reclassification Map No. 5-I at 2412 W Belden Ave - App No. 22171T1</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -52154,7 +52094,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>7F659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>57659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52164,12 +52104,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>SO2023-0001908</t>
+          <t>SO2023-0001895</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 3-G at 1440-1464 N Magnolia Ave/1241-1259 W Le Moyne St/1439-1461 N Elston Ave - App No. 22077T1</t>
+          <t>Zoning Reclassification Map No. 20-K at 7901-8071 S Cicero Ave/4744-4760 W 81st St/4649-4711 W 79th St - App No. 22179</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -52179,7 +52119,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -52189,7 +52129,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>7F659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>64659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52199,12 +52139,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>SO2023-0001909</t>
+          <t>SO2023-0001903</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 10-F at 4005 S Dearborn St - App No. 22078</t>
+          <t>Zoning Reclassification Map No. 1-H at 1924 W Grand Ave - App No. 22193T1</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -52224,7 +52164,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>81659CA3-1F11-EE11-8F6C-001DD8094692</t>
+          <t>75659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52234,17 +52174,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>SO2023-0001945</t>
+          <t>SO2023-0001906</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
+          <t>Zoning Reclassification Map No. 5-H at 1868-1878 N Milwaukee Ave - App No. 22197T1</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -52254,12 +52194,12 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>B5E9EE7B-2711-EE11-8F6C-001DD806D3F2</t>
+          <t>7B659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52269,17 +52209,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>SO2023-0001958</t>
+          <t>SO2023-0001907</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Residential permit parking - establish</t>
+          <t>Zoning Reclassification Map No. 14-G at 6206 S Racine Ave - App No. 22070</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -52289,12 +52229,12 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>92984176-3711-EE11-8F6C-001DD806D3F2</t>
+          <t>7D659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52304,17 +52244,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SO2023-0001961</t>
+          <t>SO2023-0001908</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Loading/Standing Zone(s) - amend</t>
+          <t>Zoning Reclassification Map No. 3-G at 1440-1464 N Magnolia Ave/1241-1259 W Le Moyne St/1439-1461 N Elston Ave - App No. 22077T1</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -52324,12 +52264,12 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>70318C92-3811-EE11-8F6C-001DD806D3F2</t>
+          <t>7F659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52339,32 +52279,32 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>SO2023-0001991</t>
+          <t>SO2023-0001908</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Parking meter(s) - amend</t>
+          <t>Zoning Reclassification Map No. 3-G at 1440-1464 N Magnolia Ave/1241-1259 W Le Moyne St/1439-1461 N Elston Ave - App No. 22077T1</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>5DCFA5C7-4411-EE11-8F6C-001DD806D3F2</t>
+          <t>7F659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52374,12 +52314,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>SO2023-0002059</t>
+          <t>SO2023-0001909</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Housing, Department of Public Health, Mayor's Office for People with Disabilities, Department of Family and Support Services, Department of Transportation, and Chicago Police Department</t>
+          <t>Zoning Reclassification Map No. 10-F at 4005 S Dearborn St - App No. 22078</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -52399,7 +52339,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>184CE25F-DC11-EE11-8F6C-001DD806D3F2</t>
+          <t>81659CA3-1F11-EE11-8F6C-001DD8094692</t>
         </is>
       </c>
     </row>
@@ -52409,17 +52349,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>SO2023-0002183</t>
+          <t>SO2023-0001945</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 2-G at 1434-1446 W Fillmore Ave - App No. 22213T1</t>
+          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -52429,12 +52369,12 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>7D0B7D43-0815-EE11-8F6D-001DD806F9D9</t>
+          <t>B5E9EE7B-2711-EE11-8F6C-001DD806D3F2</t>
         </is>
       </c>
     </row>
@@ -52444,17 +52384,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>SO2023-0002196</t>
+          <t>SO2023-0001958</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Exemption from physical barrier requirement for commercial driveway alley access for AP Property Development, Inc.</t>
+          <t>Residential permit parking - establish</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -52464,12 +52404,12 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>F4F127B1-B515-EE11-8F6D-001DD806F88B</t>
+          <t>92984176-3711-EE11-8F6C-001DD806D3F2</t>
         </is>
       </c>
     </row>
@@ -52479,12 +52419,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>SO2023-0002607</t>
+          <t>SO2023-0001961</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map Nos. 4-I and 4-J at 1554 and 1559 S Kedzie Ave - App No. A-8764</t>
+          <t>Loading/Standing Zone(s) - amend</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -52494,17 +52434,17 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>1D7F7445-691D-EE11-8F6C-001DD8095238</t>
+          <t>70318C92-3811-EE11-8F6C-001DD806D3F2</t>
         </is>
       </c>
     </row>
@@ -52514,17 +52454,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>SO2023-0002851</t>
+          <t>SO2023-0001991</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Section 10-8-180 regarding responsibilities for removal of snow and ice from public way and establishment of Chicago Plow the Sidewalks Pilot Program</t>
+          <t>Parking meter(s) - amend</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -52534,12 +52474,12 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>6B59C122-7625-EE11-9CBD-001DD804E11C</t>
+          <t>5DCFA5C7-4411-EE11-8F6C-001DD806D3F2</t>
         </is>
       </c>
     </row>
@@ -52549,17 +52489,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>SO2023-0002851</t>
+          <t>SO2023-0002059</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Section 10-8-180 regarding responsibilities for removal of snow and ice from public way and establishment of Chicago Plow the Sidewalks Pilot Program</t>
+          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Housing, Department of Public Health, Mayor's Office for People with Disabilities, Department of Family and Support Services, Department of Transportation, and Chicago Police Department</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -52574,7 +52514,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>6B59C122-7625-EE11-9CBD-001DD804E11C</t>
+          <t>184CE25F-DC11-EE11-8F6C-001DD806D3F2</t>
         </is>
       </c>
     </row>
@@ -52584,12 +52524,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>SO2023-0002867</t>
+          <t>SO2023-0002183</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Redevelopment agreement with and provision of eligible tax increment financing (TIF) assistance to BR Congress Owner LLC and Congress Theater NFP for renovation of Congress Theater facility at 2135 N Milwaukee Ave</t>
+          <t>Zoning Reclassification Map No. 2-G at 1434-1446 W Fillmore Ave - App No. 22213T1</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -52604,12 +52544,12 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>9B9574E7-8025-EE11-9CBD-001DD804E11C</t>
+          <t>7D0B7D43-0815-EE11-8F6D-001DD806F9D9</t>
         </is>
       </c>
     </row>
@@ -52619,32 +52559,32 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>SO2023-0002925</t>
+          <t>SO2023-0002196</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for the Department of Cultural Affairs and Special Events, Department of Public Health, Department of Family and Support Services, and Department of Police</t>
+          <t>Exemption from physical barrier requirement for commercial driveway alley access for AP Property Development, Inc.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>9A3CAA4D-3E26-EE11-9965-001DD804E11C</t>
+          <t>F4F127B1-B515-EE11-8F6D-001DD806F88B</t>
         </is>
       </c>
     </row>
@@ -52654,12 +52594,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>SO2023-0002976</t>
+          <t>SO2023-0002607</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Section 4-60-023 (1.111) to allow additional package goods licenses on portion(s) of N Milwaukee Ave for one year following passage</t>
+          <t>Zoning Reclassification Map Nos. 4-I and 4-J at 1554 and 1559 S Kedzie Ave - App No. A-8764</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -52669,17 +52609,17 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Committee on License and Consumer Protection</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>72BEE050-5826-EE11-9965-001DD804E9A5</t>
+          <t>1D7F7445-691D-EE11-8F6C-001DD8095238</t>
         </is>
       </c>
     </row>
@@ -52689,17 +52629,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>SO2023-0003861</t>
+          <t>SO2023-0002851</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 1-K at 4711 W Chicago Ave - App No. 22173T1</t>
+          <t>Amendment of Municipal Code Section 10-8-180 regarding responsibilities for removal of snow and ice from public way and establishment of Chicago Plow the Sidewalks Pilot Program</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -52709,12 +52649,12 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>6E288ACF-2D48-EE11-BE6D-001DD8097665</t>
+          <t>6B59C122-7625-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -52724,17 +52664,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>SO2023-0003866</t>
+          <t>SO2023-0002851</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 14-H at 1701-1725 W 61st St, 6100-6158 S Paulina St, 1700-1724 W 62nd St and 6101-6159 S Hermitage Ave - App No. 20374</t>
+          <t>Amendment of Municipal Code Section 10-8-180 regarding responsibilities for removal of snow and ice from public way and establishment of Chicago Plow the Sidewalks Pilot Program</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -52744,12 +52684,12 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>6920EA8A-3248-EE11-BE6D-001DD8097665</t>
+          <t>6B59C122-7625-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -52759,32 +52699,32 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SO2023-0004011</t>
+          <t>SO2023-0002867</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-H at 2469-2471 N Clybourn Ave - App No. 22242T1</t>
+          <t>Redevelopment agreement with and provision of eligible tax increment financing (TIF) assistance to BR Congress Owner LLC and Congress Theater NFP for renovation of Congress Theater facility at 2135 N Milwaukee Ave</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>CD64A31E-634E-EE11-BE6D-001DD8097F7D</t>
+          <t>9B9574E7-8025-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -52794,32 +52734,32 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SO2023-0004078</t>
+          <t>SO2023-0002925</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Chapter 2-8 by deleting and replacing Section 2-8-080 requiring Committee on Transportation and Public Way to hold quarterly hearing concerning Chicago Transit Authority (CTA) service levels, operations, and security</t>
+          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for the Department of Cultural Affairs and Special Events, Department of Public Health, Department of Family and Support Services, and Department of Police</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>Committee on Transportation and Public Way</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>36E77686-CE50-EE11-BE6E-001DD80974AF</t>
+          <t>9A3CAA4D-3E26-EE11-9965-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -52829,12 +52769,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SO2023-0004109</t>
+          <t>SO2023-0002976</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 8-J at 3657 W 31st St/3101-3111 S Lawndale Ave - App No. 22252T1</t>
+          <t>Amendment of Municipal Code Section 4-60-023 (1.111) to allow additional package goods licenses on portion(s) of N Milwaukee Ave for one year following passage</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -52844,17 +52784,17 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on License and Consumer Protection</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>E7795F6C-8351-EE11-BE6E-001DD809716C</t>
+          <t>72BEE050-5826-EE11-9965-001DD804E9A5</t>
         </is>
       </c>
     </row>
@@ -52864,32 +52804,32 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>SO2023-0004139</t>
+          <t>SO2023-0003861</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
+          <t>Zoning Reclassification Map No. 1-K at 4711 W Chicago Ave - App No. 22173T1</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>0B8A6993-4352-EE11-BE6E-001DD8097692</t>
+          <t>6E288ACF-2D48-EE11-BE6D-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -52899,32 +52839,32 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>SO2023-0004140</t>
+          <t>SO2023-0003866</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Tow-away zones - establish and amend</t>
+          <t>Zoning Reclassification Map No. 14-H at 1701-1725 W 61st St, 6100-6158 S Paulina St, 1700-1724 W 62nd St and 6101-6159 S Hermitage Ave - App No. 20374</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>A4577D8D-4452-EE11-BE6E-001DD8097692</t>
+          <t>6920EA8A-3248-EE11-BE6D-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -52934,12 +52874,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>SO2023-0004142</t>
+          <t>SO2023-0004011</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Residential permit parking - establish and amend</t>
+          <t>Zoning Reclassification Map No. 7-H at 2469-2471 N Clybourn Ave - App No. 22242T1</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -52949,17 +52889,17 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>E0E59FFF-4552-EE11-BE6E-001DD8097692</t>
+          <t>CD64A31E-634E-EE11-BE6D-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -52969,22 +52909,22 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>SO2023-0004143</t>
+          <t>SO2023-0004078</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) - establish and amend</t>
+          <t>Amendment of Municipal Code Chapter 2-8 by deleting and replacing Section 2-8-080 requiring Committee on Transportation and Public Way to hold quarterly hearing concerning Chicago Transit Authority (CTA) service levels, operations, and security</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Transportation and Public Way</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -52994,7 +52934,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>2DF4E36D-4652-EE11-BE6E-001DD8097692</t>
+          <t>36E77686-CE50-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -53004,12 +52944,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>SO2023-0004144</t>
+          <t>SO2023-0004109</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Public Health, Department of Police and Department of Business Affairs and Consumer Protection</t>
+          <t>Zoning Reclassification Map No. 8-J at 3657 W 31st St/3101-3111 S Lawndale Ave - App No. 22252T1</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -53019,17 +52959,17 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>90DE6650-4952-EE11-BE6E-001DD8097588</t>
+          <t>E7795F6C-8351-EE11-BE6E-001DD809716C</t>
         </is>
       </c>
     </row>
@@ -53039,12 +52979,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>SO2023-0004187</t>
+          <t>SO2023-0004139</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-F at 345 W Armitage Ave - App No. 22270</t>
+          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -53054,17 +52994,17 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>372B2DBC-F552-EE11-BE6E-001DD80974AF</t>
+          <t>0B8A6993-4352-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -53074,12 +53014,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>SO2023-0004209</t>
+          <t>SO2023-0004140</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 5-G at 2014-2016 N Bissell St - App No. 22274T1</t>
+          <t>Tow-away zones - establish and amend</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -53089,17 +53029,17 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>A2C01E0E-1553-EE11-BE6E-001DD8097665</t>
+          <t>A4577D8D-4452-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -53109,12 +53049,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SO2023-0004218</t>
+          <t>SO2023-0004142</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 4-F at 713-715 W 19th Pl - App No. 22276T1</t>
+          <t>Residential permit parking - establish and amend</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -53124,17 +53064,17 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>1536ACC9-1E53-EE11-BE6E-001DD8097665</t>
+          <t>E0E59FFF-4552-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -53144,32 +53084,32 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>SO2023-0005042</t>
+          <t>SO2023-0004143</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Acquisition of property from Albertsons Companies, Inc. at 11414 S Halsted St including northwest corner of 115th and Halsted St to establish and operate migrant shelter</t>
+          <t>Traffic sign(s)/signal(s) - establish and amend</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Deferred and Published</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>7006057A-0C63-EE11-BE6E-001DD80523DD</t>
+          <t>2DF4E36D-4652-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -53179,32 +53119,32 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SOr2023-0002849</t>
+          <t>SO2023-0004144</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Payment of various small claims</t>
+          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Public Health, Department of Police and Department of Business Affairs and Consumer Protection</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+          <t>90DE6650-4952-EE11-BE6E-001DD8097588</t>
         </is>
       </c>
     </row>
@@ -53214,32 +53154,32 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SOr2023-0002849</t>
+          <t>SO2023-0004187</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Payment of various small claims</t>
+          <t>Zoning Reclassification Map No. 5-F at 345 W Armitage Ave - App No. 22270</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+          <t>372B2DBC-F552-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -53249,32 +53189,32 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SR2023-0001267</t>
+          <t>SO2023-0004209</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+          <t>Zoning Reclassification Map No. 5-G at 2014-2016 N Bissell St - App No. 22274T1</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Committee on Workforce Development</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+          <t>A2C01E0E-1553-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -53284,30 +53224,240 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
+          <t>SO2023-0004218</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Zoning Reclassification Map No. 4-F at 713-715 W 19th Pl - App No. 22276T1</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Recommended to Pass</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>1536ACC9-1E53-EE11-BE6E-001DD8097665</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>SO2023-0004943</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund 925 for Department of Public Health and Department of Fire</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Recommended to Pass</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Committee on Budget and Government Operations</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>A12B8971-4462-EE11-BE6E-001DD80523DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>SO2023-0005042</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Acquisition of property from Albertsons Companies, Inc. at 11414 S Halsted St including northwest corner of 115th and Halsted St to establish and operate migrant shelter, as amended with term limit amendment of Nov 7.</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Deferred and Published</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Committee on Housing and Real Estate</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>7006057A-0C63-EE11-BE6E-001DD80523DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>SOr2023-0002849</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Payment of various small claims</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Chicago City Council</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>SOr2023-0002849</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Payment of various small claims</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Chicago City Council</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
           <t>SR2023-0001267</t>
         </is>
       </c>
-      <c r="C602" t="inlineStr">
+      <c r="C607" t="inlineStr">
         <is>
           <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
         </is>
       </c>
-      <c r="D602" t="inlineStr">
+      <c r="D607" t="inlineStr">
         <is>
           <t>Substituted</t>
         </is>
       </c>
-      <c r="E602" t="inlineStr">
+      <c r="E607" t="inlineStr">
         <is>
           <t>Chicago City Council</t>
         </is>
       </c>
-      <c r="F602" t="inlineStr">
+      <c r="F607" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="G602" t="inlineStr">
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>SR2023-0001267</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Adopted</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Committee on Workforce Development</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
         <is>
           <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
         </is>

--- a/data_issues.xlsx
+++ b/data_issues.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Funding Loan Notification of Multi-Family Housing Revenue Notes (Encuentro Square II Apartments), Series 2023A and 2023B</t>
+          <t>Funding loan notification of Multi-Family Housing Revenue Notes (Encuentro Square II Apartments), Series 2023A and 2023B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Acquisition of property for roadway improvement project along S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for North Point Redevelopment Project</t>
+          <t>Acquisition of property at S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for roadway improvements associated with North Point Redevelopment Project</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8181,25 +8181,85 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
+          <t>SO2023-0005140</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Annual Appropriation Ordinance Year 2024, as amended</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Amended</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SO2023-0005140</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Annual Appropriation Ordinance Year 2024, as amended</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
           <t>SR2023-0001267</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t>Substituted</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
         </is>
@@ -8216,7 +8276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8312,7 +8372,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>First amendment to intergovernmental agreement with Chicago Park District to increase provision of Tax Increment Financing (TIF) funds for renovation of public fieldhouse at Blackhawk Park, 2318 N Lavergne Ave</t>
+          <t>First amendment to intergovernmental agreement with Chicago Park District to increase provision of tax increment financing (TIF) funds for renovation of public fieldhouse at Blackhawk Park, 2318 N Lavergne Ave</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8332,7 +8392,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Redevelopment agreement with and provision of Tax Increment Financing (TIF) funds to Steep Theatre Company for renovation and construction of new theater venue and community space at 5300-5318 N Kenmore Ave</t>
+          <t>Redevelopment agreement with and provision of tax increment financing (TIF) funds to Steep Theatre Company for renovation and construction of new theater venue and community space at 5300-5318 N Kenmore Ave</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8412,7 +8472,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amendment of redevelopment agreement with Little Village Business Incubator LLC for provision of Neighborhood Opportunity Funds for commercial renovations at 3523-3525 W 26th St</t>
+          <t>Amendment of redevelopment agreement with Little Village Business Incubator LLC for provision of Neighborhood Opportunity Funds (NOF) for commercial renovations at 3523-3525 W 26th St</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8647,17 +8707,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O2023-0004278</t>
+          <t>O2023-0004507</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Residential permit parking at 2916-2959 N Central Park Avenue - amend</t>
+          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B225D0A6-4E53-EE11-BE6E-001DD8097665</t>
+          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
         </is>
       </c>
     </row>
@@ -8667,17 +8727,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O2023-0004507</t>
+          <t>O2023-0004647</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Handicapped permit parking at 6013 S Richmond St</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
+          <t>E882906B-555D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -8687,17 +8747,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O2023-0004647</t>
+          <t>O2023-0004666</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 6013 S Richmond St</t>
+          <t>Speed limitation at W Grace St from N Damen Ave to N Lincoln Ave - 20 mph</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E882906B-555D-EE11-BE6E-001DD8306AD0</t>
+          <t>14AE0A48-735D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -8707,17 +8767,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O2023-0004666</t>
+          <t>O2023-0005857</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Speed limitation at W Grace St from N Damen Ave to N Lincoln Ave - 20 mph</t>
+          <t>Handicapped Parking Permit No. 126162 - amend</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14AE0A48-735D-EE11-BE6E-001DD8306AD0</t>
+          <t>507279D5-C27D-EE11-8178-001DD8095243</t>
         </is>
       </c>
     </row>
@@ -8727,17 +8787,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O2023-0005857</t>
+          <t>Or2023-0004271</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 126162 - amend</t>
+          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>507279D5-C27D-EE11-8178-001DD8095243</t>
+          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -8747,17 +8807,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Or2023-0004271</t>
+          <t>Or2023-0004507</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
+          <t>Call for Chicago Department of Transportation and Department of Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
+          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
         </is>
       </c>
     </row>
@@ -8767,17 +8827,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Or2023-0004507</t>
+          <t>R2023-0001022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Call for hearing(s) each month on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
+          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
         </is>
       </c>
     </row>
@@ -8787,17 +8847,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R2023-0001022</t>
+          <t>R2023-0002266</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Congratulations extended to Lois Davis on 91st birthday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
+          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
         </is>
       </c>
     </row>
@@ -8807,17 +8867,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R2023-0002266</t>
+          <t>R2023-0003337</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Congratulations extended to Lois Davis on 91st birthday</t>
+          <t>Congratulations extended to Charles Hampton 85th birthday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
+          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -8827,17 +8887,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R2023-0003337</t>
+          <t>R2023-0004106</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Congratulations extended to Charles Hampton 85th birthday</t>
+          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
+          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -8847,17 +8907,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R2023-0004106</t>
+          <t>R2023-0004537</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
+          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
+          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
         </is>
       </c>
     </row>
@@ -8867,17 +8927,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R2023-0004537</t>
+          <t>R2023-0004884</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
+          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
+          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
         </is>
       </c>
     </row>
@@ -8887,17 +8947,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R2023-0004884</t>
+          <t>R2023-0005530</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
+          <t>Tribute to late Brent R. Hamlet</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
+          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8967,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R2023-0005530</t>
+          <t>R2023-0005886</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tribute to late Brent R. Hamlet</t>
+          <t>Declaration of first Sunday in December as "Toys for Tots Day" in Chicago</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
+          <t>6D4FA8AD-2C82-EE11-8178-001DD83091CA</t>
         </is>
       </c>
     </row>
@@ -8927,17 +8987,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R2023-0005886</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Declaration of first Sunday in December as "Toys for Tots Day" in Chicago</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6D4FA8AD-2C82-EE11-8178-001DD83091CA</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -8947,35 +9007,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>SO2023-0001994</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Vehicle weight limitations - 5 tons - establish</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SO2023-0001994</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Vehicle weight limitations - 5 tons - establish</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t>CAFA74C1-4511-EE11-8F6C-001DD806D3F2</t>
         </is>
@@ -17583,7 +17623,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>First amendment to intergovernmental agreement with Chicago Park District to increase provision of Tax Increment Financing (TIF) funds for renovation of public fieldhouse at Blackhawk Park, 2318 N Lavergne Ave</t>
+          <t>First amendment to intergovernmental agreement with Chicago Park District to increase provision of tax increment financing (TIF) funds for renovation of public fieldhouse at Blackhawk Park, 2318 N Lavergne Ave</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -17653,7 +17693,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Redevelopment agreement with and provision of Tax Increment Financing (TIF) funds to Steep Theatre Company for renovation and construction of new theater venue and community space at 5300-5318 N Kenmore Ave</t>
+          <t>Redevelopment agreement with and provision of tax increment financing (TIF) funds to Steep Theatre Company for renovation and construction of new theater venue and community space at 5300-5318 N Kenmore Ave</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -17688,7 +17728,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Redevelopment agreement with and provision of Tax Increment Financing (TIF) funds to 221 E. 49th Street LLC for development of Overton Center of Excellence at 221 E 49th St</t>
+          <t>Redevelopment agreement with and provision of tax increment financing (TIF) funds to 221 E. 49th Street LLC for development of Overton Center of Excellence at 221 E 49th St</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -17898,7 +17938,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Amendment of ordinance appropriating Tax Increment Financing (TIF) assistance funds for infrastructure projects for University of Illinois Discovery Partners Institute at W 15th St and S Clark St</t>
+          <t>Amendment of ordinance appropriating tax increment financing (TIF) funds for infrastructure projects for University of Illinois Discovery Partners Institute at W 15th St and S Clark St</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -18248,7 +18288,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Acquisition of property for roadway improvement project along S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for North Point Redevelopment Project</t>
+          <t>Acquisition of property at S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for roadway improvements associated with North Point Redevelopment Project</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -20558,7 +20598,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Amendment of redevelopment agreement with Little Village Business Incubator LLC for provision of Neighborhood Opportunity Funds for commercial renovations at 3523-3525 W 26th St</t>
+          <t>Amendment of redevelopment agreement with Little Village Business Incubator LLC for provision of Neighborhood Opportunity Funds (NOF) for commercial renovations at 3523-3525 W 26th St</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -23183,7 +23223,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Transfer of Funds within Committee on Environmental Protection and Energy for Year 2023</t>
+          <t>Transfer of funds within Committee on Environmental Protection and Energy for Year 2023</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -28293,7 +28333,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Extension of term, amendment of 2023 budget, 2023 tax levy, 2024 budget and related Service Provider Agreement for Special Service Area No. 18, North Halsted Street</t>
+          <t>Extension of term, amendment of 2023 budget, 2023 tax levy, 2024 budget and related service provider agreement for Special Service Area No. 18, North Halsted Street</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -28328,7 +28368,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Enlargement of and 2023 tax levy, 2024 budget and Service Provider Agreement for Special Service Area No. 44, 103rd Street-Beverly</t>
+          <t>Enlargement of boundaries, 2023 tax levy, 2024 budget and service provider agreement for Special Service Area No. 44, 103rd Street-Beverly</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -28363,7 +28403,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Establishment of, and 2023 tax levy and 2024 budget for Special Service Area No. 61-2023, Hyde Park</t>
+          <t>Establishment of Special Service Area No. 61-2023, Hyde Park, approval of 2024 budget and imposition of 2023 tax rate and levy</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -28398,7 +28438,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Extension of term, 2023 tax levy, 2024 budget and Service Provider Agreement for Special Service Area No. 69, 95th/Ashland</t>
+          <t>Extension of term, 2023 tax levy, 2024 budget and service provider agreement for Special Service Area No. 69, 95th/Ashland</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -30533,7 +30573,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Settlement agreement regarding case of Diana Kerizareth v. Chicago Police Officer Kristophe Jaros, Star #9295; Chicago Police Officer Ameen H. Mustafa, Star #16130; Chicago Police Officer Arturo Villanueva, Star #409; and the City of Chicago, a Municipal Corporation, cited as 2022 L 4459 (Cir. Ct. of Cook County, Law Division)</t>
+          <t>Settlement agreement regarding case of Diana Kerizareth v. Chicago Police Officer Kristophe Jaros, Star No. 9295; Chicago Police Officer Ameen H. Mustafa, Star No. 16130; Chicago Police Officer Arturo Villanueva, Star No. 409; and the City of Chicago, a Municipal Corporation, cited as 2022 L 4459 (Cir. Ct. of Cook County, Law Division)</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -30708,7 +30748,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -33036,7 +33076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G689"/>
+  <dimension ref="A1:G692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36307,22 +36347,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Acquisition of property for roadway improvement project along S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for North Point Redevelopment Project</t>
+          <t>Acquisition of property at S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for roadway improvements associated with North Point Redevelopment Project</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -36342,22 +36382,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Acquisition of property for roadway improvement project along S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for North Point Redevelopment Project</t>
+          <t>Acquisition of property at S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for roadway improvements associated with North Point Redevelopment Project</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Held in Committee</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -36377,12 +36417,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Acquisition of property for roadway improvement project along S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for North Point Redevelopment Project</t>
+          <t>Acquisition of property at S Burley Avenue from E 122nd Street to E 126th Pl; S Carondolet Ave from E 122nd St to E 126th Pl; and E 122nd St from South Ave O to S Caroldolet Ave and Norfolk Southern Railway Company grade crossing for roadway improvements associated with North Point Redevelopment Project</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Held in Committee</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -36392,7 +36432,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -37082,7 +37122,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -37117,7 +37157,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -38587,17 +38627,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -38622,17 +38662,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -39743,7 +39783,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -39753,7 +39793,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -39778,7 +39818,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -39788,7 +39828,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -41243,7 +41283,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Renewed retroactive license agreement with 548 Capital LLC to secure and maintain City property and City's interest in development properties at 8840 S Commercial Ave, 8844 S Commercial Ave and 8848 S Commercial Ave</t>
+          <t>Renewal of retroactive license agreement with 548 Capital LLC to secure and maintain City property and City's interest in development properties at 8840 S Commercial Ave, 8844 S Commercial Ave and 8848 S Commercial Ave</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -41768,7 +41808,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Sale of City-owned property at 1832 S Sawyer Ave to Heather Ferguson Under Adjacent Neighbors Land Acquisition Program</t>
+          <t>Sale of City-owned property at 1832 S Sawyer Ave to Heather Ferguson under Adjacent Neighbors Land Acquisition Program</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -42053,17 +42093,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -42088,17 +42128,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -42193,17 +42233,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -42228,17 +42268,17 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -42263,17 +42303,17 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -42298,17 +42338,17 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -42333,17 +42373,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -42368,17 +42408,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -42543,17 +42583,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -42578,17 +42618,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -42753,17 +42793,17 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -42788,17 +42828,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -42823,17 +42863,17 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -42858,17 +42898,17 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -43138,17 +43178,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -43173,17 +43213,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -43418,17 +43458,17 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -43453,17 +43493,17 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -43628,17 +43668,17 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -43663,17 +43703,17 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -43698,17 +43738,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -43733,17 +43773,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -43768,17 +43808,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -43803,17 +43843,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -43978,17 +44018,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -44013,17 +44053,17 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -44048,17 +44088,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -44083,17 +44123,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -44118,17 +44158,17 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -44153,17 +44193,17 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -44258,17 +44298,17 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -44293,17 +44333,17 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -44433,17 +44473,17 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -44468,17 +44508,17 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -44503,17 +44543,17 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -44538,17 +44578,17 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -44573,17 +44613,17 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -44608,17 +44648,17 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -44643,17 +44683,17 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -44678,17 +44718,17 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -44713,17 +44753,17 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -44748,17 +44788,17 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -44888,17 +44928,17 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -44923,17 +44963,17 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -44958,17 +44998,17 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -44993,17 +45033,17 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -45028,17 +45068,17 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -45063,17 +45103,17 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -45098,17 +45138,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -45133,17 +45173,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -45238,17 +45278,17 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -45273,17 +45313,17 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -45518,17 +45558,17 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -45553,17 +45593,17 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -45588,17 +45628,17 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -45623,17 +45663,17 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -45658,17 +45698,17 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -45693,17 +45733,17 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -45863,22 +45903,22 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Collective bargaining agreements (CBA) with City of Chicago and Illinois Nurses Assn (INA), Illinois Council of Police (ICOP), Coalition of Unionized Public Employees (COUPE) and several named trade unions</t>
+          <t>Collective bargaining agreements with City of Chicago and Illinois Nurses Association, Illinois Council of Police, Coalition of Unionized Public Employees and several named trade unions</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Committee on Workforce Development</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -45898,22 +45938,22 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Collective bargaining agreements (CBA) with City of Chicago and Illinois Nurses Assn (INA), Illinois Council of Police (ICOP), Coalition of Unionized Public Employees (COUPE) and several named trade unions</t>
+          <t>Collective bargaining agreements with City of Chicago and Illinois Nurses Association, Illinois Council of Police, Coalition of Unionized Public Employees and several named trade unions</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Workforce Development</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -46038,7 +46078,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Section 9-48-045 prohibiting operation of pedicabs on public ways in area bounded by E Roosevelt Rd, S Indiana Ave, W 18th St and S Columbus Dr.
+          <t>Amendment of Municipal Code Section 9-48-045 by prohibiting operation of pedicabs on public ways in area bounded by E Roosevelt Rd, S Indiana Ave, W 18th St and S Columbus Dr.
 PASSED AS AMENDED in Committee September 26th</t>
         </is>
       </c>
@@ -46804,32 +46844,32 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>O2023-0004180</t>
+          <t>O2023-0004172</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-L at 4903 W Diversey Ave - App No. 22267</t>
+          <t>Handicapped Parking Permit No. 131156</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>6FAE100B-7252-EE11-BE6E-001DD809716C</t>
+          <t>69C8F181-6852-EE11-BE6E-001DD809716C</t>
         </is>
       </c>
     </row>
@@ -46839,12 +46879,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>O2023-0004182</t>
+          <t>O2023-0004180</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 30-F at 656 W 123rd St - App No. 22268</t>
+          <t>Zoning Reclassification Map No. 7-L at 4903 W Diversey Ave - App No. 22267</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -46864,7 +46904,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>0923C7C6-7552-EE11-BE6E-001DD809716C</t>
+          <t>6FAE100B-7252-EE11-BE6E-001DD809716C</t>
         </is>
       </c>
     </row>
@@ -46874,12 +46914,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>O2023-0004183</t>
+          <t>O2023-0004182</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Sale of vacant City-owned property at 12040 S Michigan Ave to David Lomax under Adjacent Neighbors Land Acquisition Program</t>
+          <t>Zoning Reclassification Map No. 30-F at 656 W 123rd St - App No. 22268</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -46889,17 +46929,17 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>CAFCF44C-8452-EE11-BE6E-001DD8097118</t>
+          <t>0923C7C6-7552-EE11-BE6E-001DD809716C</t>
         </is>
       </c>
     </row>
@@ -46909,12 +46949,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>O2023-0004184</t>
+          <t>O2023-0004183</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Sale of vacant City-owned property at 5819 S Wabash Ave to Jesus Negron under Adjacent Neighbors Land Acquisition Program</t>
+          <t>Sale of vacant City-owned property at 12040 S Michigan Ave to David Lomax under Adjacent Neighbors Land Acquisition Program</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -46934,7 +46974,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>4BE7E8E4-8C52-EE11-BE6E-001DD80974AF</t>
+          <t>CAFCF44C-8452-EE11-BE6E-001DD8097118</t>
         </is>
       </c>
     </row>
@@ -46944,12 +46984,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>O2023-0004185</t>
+          <t>O2023-0004184</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Sale of vacant City-owned property at 1232-1234 W 81st St to Sidney Michelle Battle under the Adjacent Neighbors Land Acquisition Program</t>
+          <t>Sale of vacant City-owned property at 5819 S Wabash Ave to Jesus Negron under Adjacent Neighbors Land Acquisition Program</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -46969,7 +47009,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>4DC06AF2-8E52-EE11-BE6E-001DD80974AF</t>
+          <t>4BE7E8E4-8C52-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -46979,12 +47019,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>O2023-0004186</t>
+          <t>O2023-0004185</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 7-N at 3015 N Normandy Ave - App No. 22269</t>
+          <t>Sale of vacant City-owned property at 1232-1234 W 81st St to Sidney Michelle Battle under the Adjacent Neighbors Land Acquisition Program</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -46994,17 +47034,17 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>B5EFB307-F452-EE11-BE6E-001DD8097F18</t>
+          <t>4DC06AF2-8E52-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -47014,12 +47054,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>O2023-0004188</t>
+          <t>O2023-0004186</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 12-L at 4724-4744 S Cicero Ave - App No. 22271</t>
+          <t>Zoning Reclassification Map No. 7-N at 3015 N Normandy Ave - App No. 22269</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -47039,7 +47079,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>1ABA88DC-F852-EE11-BE6E-001DD80974AF</t>
+          <t>B5EFB307-F452-EE11-BE6E-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -47049,12 +47089,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>O2023-0004189</t>
+          <t>O2023-0004188</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 12-L at 4841-4857 W 47th St - App No. 22272</t>
+          <t>Zoning Reclassification Map No. 12-L at 4724-4744 S Cicero Ave - App No. 22271</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -47074,7 +47114,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>11E5A2AA-0253-EE11-BE6E-001DD80974AF</t>
+          <t>1ABA88DC-F852-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -47084,12 +47124,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>O2023-0004190</t>
+          <t>O2023-0004189</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 16-J at 3948 W 66th St - App No. 22273</t>
+          <t>Zoning Reclassification Map No. 12-L at 4841-4857 W 47th St - App No. 22272</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -47109,7 +47149,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>F9E8C645-0553-EE11-BE6E-001DD80974AF</t>
+          <t>11E5A2AA-0253-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -47119,32 +47159,32 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>O2023-0004192</t>
+          <t>O2023-0004190</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130489</t>
+          <t>Zoning Reclassification Map No. 16-J at 3948 W 66th St - App No. 22273</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>25410F16-0653-EE11-BE6E-001DD8097692</t>
+          <t>F9E8C645-0553-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -47164,17 +47204,17 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -47189,12 +47229,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>O2023-0004199</t>
+          <t>O2023-0004192</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Armitage Ave (south side) from point 60 ft east of N Harlem Ave to point 48 east, No Parking, At All Time, All Days</t>
+          <t>Handicapped Parking Permit No. 130489</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -47214,7 +47254,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>F82D9457-0F53-EE11-BE6E-001DD8097692</t>
+          <t>25410F16-0653-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -47234,17 +47274,17 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -47259,12 +47299,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>O2023-0004206</t>
+          <t>O2023-0004199</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Speed limitation at W Wellington Ave from N Sheffield Ave to N Halsted St - 20 mph</t>
+          <t>Traffic sign(s)/signal(s) at W Armitage Ave (south side) from point 60 ft east of N Harlem Ave to point 48 east, No Parking, At All Time, All Days</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -47284,7 +47324,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>79E552C9-1353-EE11-BE6E-001DD8097692</t>
+          <t>F82D9457-0F53-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -47304,17 +47344,17 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -47329,12 +47369,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>O2023-0004208</t>
+          <t>O2023-0004206</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Vehicle weight limitation at N Campbell Ave from W Addison St to W Bradley Pl - 5 tons</t>
+          <t>Speed limitation at W Wellington Ave from N Sheffield Ave to N Halsted St - 20 mph</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -47354,7 +47394,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>136F45AA-1453-EE11-BE6E-001DD8097692</t>
+          <t>79E552C9-1353-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -47374,17 +47414,17 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -47399,32 +47439,32 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>O2023-0004213</t>
+          <t>O2023-0004208</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Zoning Reclassification Map No. 11-M at 4306 N Central Ave - App No. 22275</t>
+          <t>Vehicle weight limitation at N Campbell Ave from W Addison St to W Bradley Pl - 5 tons</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Committee on Zoning, Landmarks and Building Standards</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>622EE6D6-1853-EE11-BE6E-001DD8097665</t>
+          <t>136F45AA-1453-EE11-BE6E-001DD8097692</t>
         </is>
       </c>
     </row>
@@ -47434,12 +47474,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>O2023-0004234</t>
+          <t>O2023-0004213</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Negotiated sale of City-owned property improved with former firehouse at 2358 S Whipple St to National Museum of Mexican Art conditioned on execution of redevelopment agreement to establish community center for art programming</t>
+          <t>Zoning Reclassification Map No. 11-M at 4306 N Central Ave - App No. 22275</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -47449,17 +47489,17 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Committee on Zoning, Landmarks and Building Standards</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>D49F1E3F-2A53-EE11-BE6E-001DD80974AF</t>
+          <t>622EE6D6-1853-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47469,12 +47509,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>O2023-0004264</t>
+          <t>O2023-0004234</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Negotiated sale of City-owned property at 4032 S Michigan Ave to Hyde Park Self Storage, Inc.</t>
+          <t>Negotiated sale of City-owned property improved with former firehouse at 2358 S Whipple St to National Museum of Mexican Art conditioned on execution of redevelopment agreement to establish community center for art programming</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -47494,7 +47534,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>A61E2AD0-4853-EE11-BE6E-001DD8097665</t>
+          <t>D49F1E3F-2A53-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -47504,17 +47544,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>O2023-0004273</t>
+          <t>O2023-0004263</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130351</t>
+          <t>Handicapped Parking Permit No. 131060</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -47524,12 +47564,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>AEF5761E-4C53-EE11-BE6E-001DD8097665</t>
+          <t>A4D13F8A-4853-EE11-BE6E-001DD8097F18</t>
         </is>
       </c>
     </row>
@@ -47539,12 +47579,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>O2023-0004274</t>
+          <t>O2023-0004264</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 120328</t>
+          <t>Negotiated sale of City-owned property at 4032 S Michigan Ave to Hyde Park Self Storage, Inc.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -47554,17 +47594,17 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>419B7C98-4C53-EE11-BE6E-001DD8097665</t>
+          <t>A61E2AD0-4853-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47574,12 +47614,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>O2023-0004275</t>
+          <t>O2023-0004273</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 127790</t>
+          <t>Handicapped Parking Permit No. 130351</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -47599,7 +47639,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>9DC1EB5A-4D53-EE11-BE6E-001DD8097665</t>
+          <t>AEF5761E-4C53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47609,12 +47649,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>O2023-0004276</t>
+          <t>O2023-0004274</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130183</t>
+          <t>Handicapped Parking Permit No. 120328</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -47634,7 +47674,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>7850F3BE-4D53-EE11-BE6E-001DD8097665</t>
+          <t>419B7C98-4C53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47644,12 +47684,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>O2023-0004277</t>
+          <t>O2023-0004275</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 41166</t>
+          <t>Handicapped Parking Permit No. 127790</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -47669,7 +47709,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>591D502D-4E53-EE11-BE6E-001DD8097665</t>
+          <t>9DC1EB5A-4D53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47679,12 +47719,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>O2023-0004278</t>
+          <t>O2023-0004276</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Residential permit parking at 2916-2959 N Central Park Avenue - amend</t>
+          <t>Handicapped Parking Permit No. 130183</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -47704,7 +47744,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>B225D0A6-4E53-EE11-BE6E-001DD8097665</t>
+          <t>7850F3BE-4D53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47714,32 +47754,32 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>O2023-0004288</t>
+          <t>O2023-0004277</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Sections 9-101-020 and 9-102-020 to align with new state law authority to issue speed enforcement citations as vested solely with City of Chicago and not to be delegated to 3rd party vendors</t>
+          <t>Handicapped Parking Permit No. 41166</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>E319D652-FB53-EE11-BE6E-001DD8097118</t>
+          <t>591D502D-4E53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47749,12 +47789,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>O2023-0004304</t>
+          <t>O2023-0004278</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Lease of vacant firehouse at 11954 S State Street to Rescue 8 Education and Training Division, Inc. to provide emergency response training, public safety preparedness, and youth empowerment</t>
+          <t>Residential permit parking at 2916-2959 N Central Park Avenue - amend</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -47764,17 +47804,17 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>B6356E78-0354-EE11-BE6E-001DD8097118</t>
+          <t>B225D0A6-4E53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -47784,12 +47824,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>O2023-0004424</t>
+          <t>O2023-0004288</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 18, North Halsted Street</t>
+          <t>Amendment of Municipal Code Sections 9-101-020 and 9-102-020 to align with new state law authority to issue speed enforcement citations as vested solely with City of Chicago and not to be delegated to 3rd party vendors</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -47809,7 +47849,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>BC0E6C1E-6F56-EE11-BE6E-001DD8098482</t>
+          <t>E319D652-FB53-EE11-BE6E-001DD8097118</t>
         </is>
       </c>
     </row>
@@ -47819,32 +47859,32 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>O2023-0004428</t>
+          <t>O2023-0004304</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 44, 103rd Street-Beverly</t>
+          <t>Lease of vacant firehouse at 11954 S State Street to Rescue 8 Education and Training Division, Inc. to provide emergency response training, public safety preparedness, and youth empowerment</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>F023EC7B-7156-EE11-BE6E-001DD8098482</t>
+          <t>B6356E78-0354-EE11-BE6E-001DD8097118</t>
         </is>
       </c>
     </row>
@@ -47854,12 +47894,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>O2023-0004430</t>
+          <t>O2023-0004424</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 61, Hyde Park</t>
+          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 18, North Halsted Street</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -47879,7 +47919,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>9FDBB182-7256-EE11-BE6E-001DD8098482</t>
+          <t>BC0E6C1E-6F56-EE11-BE6E-001DD8098482</t>
         </is>
       </c>
     </row>
@@ -47889,12 +47929,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>O2023-0004431</t>
+          <t>O2023-0004428</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 69, 95th/Ashland</t>
+          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 44, 103rd Street-Beverly</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -47914,7 +47954,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>7A6E5C0E-7356-EE11-BE6E-001DD8098482</t>
+          <t>F023EC7B-7156-EE11-BE6E-001DD8098482</t>
         </is>
       </c>
     </row>
@@ -47924,12 +47964,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>O2023-0004450</t>
+          <t>O2023-0004430</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Second amendment to redevelopment agreement with Imani Senior Village Phase 1 LLC for development of Imani Village at 9621 South Cottage Grove</t>
+          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 61, Hyde Park</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -47949,7 +47989,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>9D3CD890-4257-EE11-BE6E-001DD8098532</t>
+          <t>9FDBB182-7256-EE11-BE6E-001DD8098482</t>
         </is>
       </c>
     </row>
@@ -47959,32 +47999,32 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>O2023-0004453</t>
+          <t>O2023-0004431</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Intergovernmental agreement with and transfer of property at 4815, 4823, 4827 N Sacramento Ave and at 2902, 2940, 2944, and 2954 W Lawrence Ave to Chicago Park District for expansion of Ronan Park utilizing Tax Increment Financing (TIF) funds</t>
+          <t>Public hearing(s) on enlargement of boundaries, imposition of tax levy, approval of budget, extension of tax levy period and execution of service provider agreement for Special Service Area No. 69, 95th/Ashland</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>490AFE46-5757-EE11-BE6E-001DD8098532</t>
+          <t>7A6E5C0E-7356-EE11-BE6E-001DD8098482</t>
         </is>
       </c>
     </row>
@@ -47994,12 +48034,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>O2023-0004454</t>
+          <t>O2023-0004450</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Amendment of 2019 Neighborhood Opportunity Fund Grant (NOF) awarded to Ogden Washtenaw JV LLC, and Redevelopment Agreement for commercial project known as Ogden Commons at 2652 W Ogden Ave including extension of time for completion</t>
+          <t>Second amendment to redevelopment agreement with Imani Senior Village Phase 1 LLC for development of Imani Village at 9621 South Cottage Grove</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -48019,7 +48059,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>F73A6F04-5957-EE11-BE6E-001DD8098532</t>
+          <t>9D3CD890-4257-EE11-BE6E-001DD8098532</t>
         </is>
       </c>
     </row>
@@ -48029,17 +48069,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>O2023-0004455</t>
+          <t>O2023-0004453</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Negotiated sale of vacant City-owned property "as-is" with Redevelopment Agreement to SSNS Construction, Inc. for 8674-8698 S. Vincennes Ave, 842-852 W. 87th St., 835-851 W. 86th Place for commercial development of car wash, gas station, parking, restaurant with retail space</t>
+          <t>Intergovernmental agreement with and transfer of property at 4815, 4823, 4827 N Sacramento Ave and at 2902, 2940, 2944, and 2954 W Lawrence Ave to Chicago Park District for expansion of Ronan Park utilizing Tax Increment Financing (TIF) funds</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Held in Committee</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -48054,7 +48094,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>C95AFD27-5B57-EE11-BE6E-001DD8098532</t>
+          <t>490AFE46-5757-EE11-BE6E-001DD8098532</t>
         </is>
       </c>
     </row>
@@ -48064,17 +48104,17 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>O2023-0004593</t>
+          <t>O2023-0004454</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at 700 S State St - No Parking School Days</t>
+          <t>Amendment of 2019 Neighborhood Opportunity Fund (NOF) assistance granted to Ogden Washtenaw JV LLC and execution of redevelopment agreement for Ogden Commons commercial project at 2652 W Ogden Ave</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -48089,7 +48129,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>D1AD651F-6F5C-EE11-BE6E-001DD8306AD0</t>
+          <t>F73A6F04-5957-EE11-BE6E-001DD8098532</t>
         </is>
       </c>
     </row>
@@ -48099,32 +48139,32 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>O2023-0004594</t>
+          <t>O2023-0004455</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Speed limitation at W 28th St from S Kostner Ave to S Kedzie Ave</t>
+          <t>Negotiated sale of vacant City-owned property "as-is" with Redevelopment Agreement to SSNS Construction, Inc. for 8674-8698 S. Vincennes Ave, 842-852 W. 87th St., 835-851 W. 86th Place for commercial development of car wash, gas station, parking, restaurant with retail space</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Held in Committee</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>3AF1B860-805C-EE11-BE6E-001DD8306758</t>
+          <t>C95AFD27-5B57-EE11-BE6E-001DD8098532</t>
         </is>
       </c>
     </row>
@@ -48134,12 +48174,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>O2023-0004599</t>
+          <t>O2023-0004593</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Speed limitation at W 30th St from S Kostner Ave to S Kedzie Ave - 20 mph</t>
+          <t>Traffic sign(s)/signal(s) at 700 S State St - No Parking School Days</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -48159,7 +48199,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>D3C7F057-875C-EE11-BE6E-001DD8306E88</t>
+          <t>D1AD651F-6F5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -48169,12 +48209,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>O2023-0004600</t>
+          <t>O2023-0004594</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Speed limitation at S Hamlin Ave from W 33rd St to W Cermak Rd - 20 mph</t>
+          <t>Speed limitation at W 28th St from S Kostner Ave to S Kedzie Ave - 20 mph</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -48194,7 +48234,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>C0426742-895C-EE11-BE6E-001DD8306E88</t>
+          <t>3AF1B860-805C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48204,12 +48244,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>O2023-0004601</t>
+          <t>O2023-0004599</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Speed limitation at S Keeler Ave from W 33rd St to W Cermak Rd - 20 mph</t>
+          <t>Speed limitation at W 30th St from S Kostner Ave to S Kedzie Ave - 20 mph</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -48229,7 +48269,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>51D711C4-8A5C-EE11-BE6E-001DD8306E88</t>
+          <t>D3C7F057-875C-EE11-BE6E-001DD8306E88</t>
         </is>
       </c>
     </row>
@@ -48239,12 +48279,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>O2023-0004602</t>
+          <t>O2023-0004600</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Traffic direction at S Keeler Ave from W 33rd St to W 25th Pl, and from W Ogden Ave to W Cermak Rd - One-Way southerly - amend</t>
+          <t>Speed limitation at S Hamlin Ave from W 33rd St to W Cermak Rd - 20 mph</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -48264,7 +48304,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>43CFC2BA-8B5C-EE11-BE6E-001DD8306E88</t>
+          <t>C0426742-895C-EE11-BE6E-001DD8306E88</t>
         </is>
       </c>
     </row>
@@ -48274,12 +48314,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>O2023-0004603</t>
+          <t>O2023-0004601</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Traffic direction at S Hamlin Ave from W 31st St to W Cermak Rd - One-Way southerly - amend</t>
+          <t>Speed limitation at S Keeler Ave from W 33rd St to W Cermak Rd - 20 mph</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -48299,7 +48339,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0F639D61-8D5C-EE11-BE6E-001DD8306E88</t>
+          <t>51D711C4-8A5C-EE11-BE6E-001DD8306E88</t>
         </is>
       </c>
     </row>
@@ -48309,12 +48349,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>O2023-0004604</t>
+          <t>O2023-0004602</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Traffic direction at W Berwyn Ave from N California Ave to N Damen Ave - One-Way westerly - amend</t>
+          <t>Traffic direction at S Keeler Ave from W 33rd St to W 25th Pl, and from W Ogden Ave to W Cermak Rd - One-Way southerly - amend</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -48334,7 +48374,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>B61FBC25-975C-EE11-BE6E-001DD8306758</t>
+          <t>43CFC2BA-8B5C-EE11-BE6E-001DD8306E88</t>
         </is>
       </c>
     </row>
@@ -48344,12 +48384,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>O2023-0004605</t>
+          <t>O2023-0004603</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Speed limitation at W Berwyn Ave from N California Ave to N Damen Ave - 20 mph</t>
+          <t>Traffic direction at S Hamlin Ave from W 31st St to W Cermak Rd - One-Way southerly - amend</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -48369,7 +48409,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>66A62143-985C-EE11-BE6E-001DD8306758</t>
+          <t>0F639D61-8D5C-EE11-BE6E-001DD8306E88</t>
         </is>
       </c>
     </row>
@@ -48379,12 +48419,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>O2023-0004606</t>
+          <t>O2023-0004604</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Speed limitation at N Leavitt St from W Ainslie St to N Bowmanville Ave - 20 mph - amend</t>
+          <t>Traffic direction at W Berwyn Ave from N California Ave to N Damen Ave - One-Way westerly - amend</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -48404,7 +48444,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>31934425-995C-EE11-BE6E-001DD8306758</t>
+          <t>B61FBC25-975C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48414,12 +48454,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>O2023-0004607</t>
+          <t>O2023-0004605</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Traffic direction at N Leavitt St from W Ainslie St to W Foster Ave - One-Way northerly - amend</t>
+          <t>Speed limitation at W Berwyn Ave from N California Ave to N Damen Ave - 20 mph</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -48439,7 +48479,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>557AE739-9B5C-EE11-BE6E-001DD8306758</t>
+          <t>66A62143-985C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48449,12 +48489,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>O2023-0004608</t>
+          <t>O2023-0004606</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Traffic direction at W Leland Ave from N Rockwell St to N Western Ave - One-Way easterly - amend</t>
+          <t>Speed limitation at N Leavitt St from W Ainslie St to N Bowmanville Ave - 20 mph - amend</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -48474,7 +48514,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>25B2027B-9C5C-EE11-BE6E-001DD8306758</t>
+          <t>31934425-995C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48484,12 +48524,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>O2023-0004610</t>
+          <t>O2023-0004607</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Speed limitation at N Rockwell St from W Leland Ave to W Lawrence Ave - 20 mph</t>
+          <t>Traffic direction at N Leavitt St from W Ainslie St to W Foster Ave - One-Way northerly - amend</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -48509,7 +48549,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>144E7D24-A25C-EE11-BE6E-001DD8306758</t>
+          <t>557AE739-9B5C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48519,12 +48559,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>O2023-0004611</t>
+          <t>O2023-0004608</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Speed limitation at W Berteau Ave from N Western Ave to N Lincoln Ave - 20 mph</t>
+          <t>Traffic direction at W Leland Ave from N Rockwell St to N Western Ave - One-Way easterly - amend</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -48544,7 +48584,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>393CF829-A35C-EE11-BE6E-001DD8306758</t>
+          <t>25B2027B-9C5C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48554,12 +48594,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>O2023-0004612</t>
+          <t>O2023-0004610</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Traffic direction at W Berteau Ave from N Western Ave to N Lincoln Ave - One-Way westerly - amend</t>
+          <t>Speed limitation at N Rockwell St from W Leland Ave to W Lawrence Ave - 20 mph</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -48579,7 +48619,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>A3050DB9-A35C-EE11-BE6E-001DD8306758</t>
+          <t>144E7D24-A25C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48589,12 +48629,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>O2023-0004613</t>
+          <t>O2023-0004611</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Speed limitation at N Clark St from W Warner Ave to W Montrose Ave - 20 mph</t>
+          <t>Speed limitation at W Berteau Ave from N Western Ave to N Lincoln Ave - 20 mph</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -48614,7 +48654,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>FEE17069-A45C-EE11-BE6E-001DD8306758</t>
+          <t>393CF829-A35C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48624,12 +48664,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>O2023-0004614</t>
+          <t>O2023-0004612</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Traffic direction at N Leavitt St from W Addison St to W Byron St - One-Way northerly - amend</t>
+          <t>Traffic direction at W Berteau Ave from N Western Ave to N Lincoln Ave - One-Way westerly - amend</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -48649,7 +48689,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>AA408220-A65C-EE11-BE6E-001DD8306758</t>
+          <t>A3050DB9-A35C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48659,12 +48699,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>O2023-0004615</t>
+          <t>O2023-0004613</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Traffic direction at N Leavitt St from W Berteau Ave to W Montrose Ave - One-Way northerly - amend</t>
+          <t>Speed limitation at N Clark St from W Warner Ave to W Montrose Ave - 20 mph</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -48684,7 +48724,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>13D7486F-A75C-EE11-BE6E-001DD8306758</t>
+          <t>FEE17069-A45C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48694,12 +48734,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>O2023-0004616</t>
+          <t>O2023-0004614</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Traffic direction at N Leavitt St from W Wilson St to W Ainslie St - One-Way northerly - amend</t>
+          <t>Traffic direction at N Leavitt St from W Addison St to W Byron St - One-Way northerly - amend</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -48719,7 +48759,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>9DEDB534-A85C-EE11-BE6E-001DD8306758</t>
+          <t>AA408220-A65C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48729,12 +48769,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>O2023-0004617</t>
+          <t>O2023-0004615</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Traffic direction at W Leland Ave from N Rockwell St to N Clark St - One-Way easterly - amend</t>
+          <t>Traffic direction at N Leavitt St from W Berteau Ave to W Montrose Ave - One-Way northerly - amend</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -48754,7 +48794,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>5E8E8D6A-A95C-EE11-BE6E-001DD8306EA9</t>
+          <t>13D7486F-A75C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48764,12 +48804,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>O2023-0004618</t>
+          <t>O2023-0004616</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Speed limitation at W Leland Ave from N Virginia Ave to N Clark St - 20 mph</t>
+          <t>Traffic direction at N Leavitt St from W Wilson St to W Ainslie St - One-Way northerly - amend</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -48789,7 +48829,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>C5D5D1CE-AA5C-EE11-BE6E-001DD8306AD0</t>
+          <t>9DEDB534-A85C-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -48799,12 +48839,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>O2023-0004619</t>
+          <t>O2023-0004617</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Speed limitation at W Belmont Ave from north branch of Chicago River to N Western Ave - 20 mph</t>
+          <t>Traffic direction at W Leland Ave from N Rockwell St to N Clark St - One-Way easterly - amend</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -48824,7 +48864,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>A87FEC79-AB5C-EE11-BE6E-001DD8306AD0</t>
+          <t>5E8E8D6A-A95C-EE11-BE6E-001DD8306EA9</t>
         </is>
       </c>
     </row>
@@ -48834,12 +48874,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>O2023-0004620</t>
+          <t>O2023-0004618</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 131019</t>
+          <t>Speed limitation at W Leland Ave from N Virginia Ave to N Clark St - 20 mph</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -48859,7 +48899,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>DF36E63D-AC5C-EE11-BE6E-001DD8306AD0</t>
+          <t>C5D5D1CE-AA5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -48869,12 +48909,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>O2023-0004621</t>
+          <t>O2023-0004619</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 132289</t>
+          <t>Speed limitation at W Belmont Ave from north branch of Chicago River to N Western Ave - 20 mph</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -48894,7 +48934,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>8A0D00DA-AC5C-EE11-BE6E-001DD8306AD0</t>
+          <t>A87FEC79-AB5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -48904,12 +48944,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>O2023-0004622</t>
+          <t>O2023-0004620</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 131808</t>
+          <t>Handicapped Parking Permit No. 131019</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -48929,7 +48969,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>059395F5-AD5C-EE11-BE6E-001DD8306AD0</t>
+          <t>DF36E63D-AC5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -48939,12 +48979,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>O2023-0004624</t>
+          <t>O2023-0004621</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 131636</t>
+          <t>Handicapped Parking Permit No. 132289</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -48964,7 +49004,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>2F5B5654-375D-EE11-BE6E-001DD8306308</t>
+          <t>8A0D00DA-AC5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -48974,12 +49014,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>O2023-0004625</t>
+          <t>O2023-0004622</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 129932</t>
+          <t>Handicapped Parking Permit No. 131808</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -48999,7 +49039,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>35477A84-385D-EE11-BE6E-001DD8306308</t>
+          <t>059395F5-AD5C-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49009,12 +49049,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>O2023-0004626</t>
+          <t>O2023-0004624</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 122238</t>
+          <t>Handicapped Parking Permit No. 131636</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -49034,7 +49074,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>F059C030-3B5D-EE11-BE6E-001DD8306CFC</t>
+          <t>2F5B5654-375D-EE11-BE6E-001DD8306308</t>
         </is>
       </c>
     </row>
@@ -49044,12 +49084,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>O2023-0004627</t>
+          <t>O2023-0004625</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No.  82964</t>
+          <t>Handicapped Parking Permit No. 129932</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -49069,7 +49109,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>7F1DDFCF-3C5D-EE11-BE6E-001DD8306CFC</t>
+          <t>35477A84-385D-EE11-BE6E-001DD8306308</t>
         </is>
       </c>
     </row>
@@ -49079,12 +49119,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>O2023-0004628</t>
+          <t>O2023-0004626</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130703</t>
+          <t>Handicapped Parking Permit No. 122238</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -49104,7 +49144,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>984FA263-3E5D-EE11-BE6E-001DD8306CFC</t>
+          <t>F059C030-3B5D-EE11-BE6E-001DD8306CFC</t>
         </is>
       </c>
     </row>
@@ -49114,12 +49154,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>O2023-0004630</t>
+          <t>O2023-0004627</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 131877</t>
+          <t>Handicapped Parking Permit No.  82964</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -49139,7 +49179,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>BD9A5A52-3F5D-EE11-BE6E-001DD8306FC4</t>
+          <t>7F1DDFCF-3C5D-EE11-BE6E-001DD8306CFC</t>
         </is>
       </c>
     </row>
@@ -49149,12 +49189,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>O2023-0004632</t>
+          <t>O2023-0004628</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Handicapped Parking Permit No. 130950</t>
+          <t>Handicapped Parking Permit No. 130703</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -49174,7 +49214,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>068A6B57-445D-EE11-BE6E-001DD8306FC4</t>
+          <t>984FA263-3E5D-EE11-BE6E-001DD8306CFC</t>
         </is>
       </c>
     </row>
@@ -49184,12 +49224,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>O2023-0004635</t>
+          <t>O2023-0004630</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 623 W 48th St</t>
+          <t>Handicapped Parking Permit No. 131877</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -49209,7 +49249,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>14B6EAF1-475D-EE11-BE6E-001DD8306AD0</t>
+          <t>BD9A5A52-3F5D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49219,12 +49259,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>O2023-0004636</t>
+          <t>O2023-0004632</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 3631 S King Dr</t>
+          <t>Handicapped Parking Permit No. 130950</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -49244,7 +49284,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>B2D2D0D3-495D-EE11-BE6E-001DD8306FC4</t>
+          <t>068A6B57-445D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49254,12 +49294,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>O2023-0004637</t>
+          <t>O2023-0004635</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Loading/Standing/Tow Zone(s) at 3734-3744 N Damen Ave and 200-2008 W Bradley Pl - remove</t>
+          <t>Handicapped permit parking at 623 W 48th St</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -49279,7 +49319,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>A40A33A1-4B5D-EE11-BE6E-001DD8306FC4</t>
+          <t>14B6EAF1-475D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49289,12 +49329,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>O2023-0004638</t>
+          <t>O2023-0004636</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 827 E 48th St</t>
+          <t>Handicapped permit parking at 3631 S King Dr</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -49314,7 +49354,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>5119B0A9-4C5D-EE11-BE6E-001DD8306FC4</t>
+          <t>B2D2D0D3-495D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49324,12 +49364,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>O2023-0004639</t>
+          <t>O2023-0004637</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Loading/Standing/Tow Zone(s) at S Central Park Ave from W Madison St to W Adams St - amend</t>
+          <t>Loading/Standing/Tow Zone(s) at 3734-3744 N Damen Ave and 200-2008 W Bradley Pl - remove</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -49349,7 +49389,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>1DBA1C11-4E5D-EE11-BE6E-001DD8306FC4</t>
+          <t>A40A33A1-4B5D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49359,12 +49399,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>O2023-0004645</t>
+          <t>O2023-0004638</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 4446 S Hermitage Ave</t>
+          <t>Handicapped permit parking at 827 E 48th St</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -49384,7 +49424,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>95AB20E0-525D-EE11-BE6E-001DD8306AD0</t>
+          <t>5119B0A9-4C5D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49394,12 +49434,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>O2023-0004647</t>
+          <t>O2023-0004639</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 6013 S Richmond St</t>
+          <t>Loading/Standing/Tow Zone(s) at S Central Park Ave from W Madison St to W Adams St - amend</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -49419,7 +49459,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>E882906B-555D-EE11-BE6E-001DD8306AD0</t>
+          <t>1DBA1C11-4E5D-EE11-BE6E-001DD8306FC4</t>
         </is>
       </c>
     </row>
@@ -49429,12 +49469,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>O2023-0004650</t>
+          <t>O2023-0004645</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Loading/Standing/Tow Zone(s) at 3908-3910 N Lincoln Ave</t>
+          <t>Handicapped permit parking at 4446 S Hermitage Ave</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -49454,7 +49494,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>84D81CBC-605D-EE11-BE6E-001DD8306AD0</t>
+          <t>95AB20E0-525D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49464,12 +49504,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>O2023-0004653</t>
+          <t>O2023-0004647</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Speed limitation at W Argyle St from north branch of Chicago River to N Rockwell St - 20 mph</t>
+          <t>Handicapped permit parking at 6013 S Richmond St</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -49489,7 +49529,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>E5E6874B-635D-EE11-BE6E-001DD8306AD0</t>
+          <t>E882906B-555D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49499,12 +49539,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>O2023-0004657</t>
+          <t>O2023-0004650</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Traffic direction at W Argyle St from N Francisco Ave to N Rockwell St - One-Way westerly - amend</t>
+          <t>Loading/Standing/Tow Zone(s) at 3908-3910 N Lincoln Ave</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -49524,7 +49564,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>2A866310-655D-EE11-BE6E-001DD8306AD0</t>
+          <t>84D81CBC-605D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49534,12 +49574,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>O2023-0004658</t>
+          <t>O2023-0004653</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Traffic direction at N Rockwell St from W Lawrence Ave to W Argyle St - One-Way northerly - amend</t>
+          <t>Speed limitation at W Argyle St from north branch of Chicago River to N Rockwell St - 20 mph</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -49559,7 +49599,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>14C659E8-665D-EE11-BE6E-001DD8306AD0</t>
+          <t>E5E6874B-635D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49569,12 +49609,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>O2023-0004661</t>
+          <t>O2023-0004657</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Speed limitation at N Rockwell St from W Lawrence Ave to W Argyle St - 20 mph</t>
+          <t>Traffic direction at W Argyle St from N Francisco Ave to N Rockwell St - One-Way westerly - amend</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -49594,7 +49634,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>A325FA54-6C5D-EE11-BE6E-001DD8306AD0</t>
+          <t>2A866310-655D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49604,12 +49644,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>O2023-0004664</t>
+          <t>O2023-0004658</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Speed limitation at  W Carmen Ave from N Clark St to N Broadway - 20 mph</t>
+          <t>Traffic direction at N Rockwell St from W Lawrence Ave to W Argyle St - One-Way northerly - amend</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -49629,7 +49669,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>55F5490C-715D-EE11-BE6E-001DD8306AD0</t>
+          <t>14C659E8-665D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49639,12 +49679,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>O2023-0004666</t>
+          <t>O2023-0004661</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Speed limitation at W Grace St from N Damen Ave to N Lincoln Ave - 20 mph</t>
+          <t>Speed limitation at N Rockwell St from W Lawrence Ave to W Argyle St - 20 mph</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -49664,7 +49704,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>14AE0A48-735D-EE11-BE6E-001DD8306AD0</t>
+          <t>A325FA54-6C5D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49674,12 +49714,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>O2023-0004667</t>
+          <t>O2023-0004664</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Speed limitation at N Ravenswood Ave from W Roscoe St to W School St - 20 mph</t>
+          <t>Speed limitation at  W Carmen Ave from N Clark St to N Broadway - 20 mph</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -49699,7 +49739,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>B83D47CD-735D-EE11-BE6E-001DD8306AD0</t>
+          <t>55F5490C-715D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49709,12 +49749,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>O2023-0004668</t>
+          <t>O2023-0004666</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Speed limitation at W Roscoe St from N Wolcott Ave to N Ashland Ave - 20 mph</t>
+          <t>Speed limitation at W Grace St from N Damen Ave to N Lincoln Ave - 20 mph</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -49734,7 +49774,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>797D0C4E-755D-EE11-BE6E-001DD8306758</t>
+          <t>14AE0A48-735D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49744,12 +49784,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>O2023-0004669</t>
+          <t>O2023-0004667</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Speed limitation at W School St from N Ravenswood Ave to N Lincoln Ave - 20 mph</t>
+          <t>Speed limitation at N Ravenswood Ave from W Roscoe St to W School St - 20 mph</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -49769,7 +49809,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>C783D96C-765D-EE11-BE6E-001DD8306758</t>
+          <t>B83D47CD-735D-EE11-BE6E-001DD8306AD0</t>
         </is>
       </c>
     </row>
@@ -49779,32 +49819,32 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>O2023-0004940</t>
+          <t>O2023-0004668</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Extension of intergovernmental lease agreement with The Board of Trustees of University of Illinois for general medical services and preventative care space at Lower West Side Neighborhood Clinic, 1713 S Ashland Ave</t>
+          <t>Speed limitation at W Roscoe St from N Wolcott Ave to N Ashland Ave - 20 mph</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>22C1D7D8-3D62-EE11-BE6E-001DD80520D0</t>
+          <t>797D0C4E-755D-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -49814,32 +49854,32 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>O2023-0004941</t>
+          <t>O2023-0004669</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Extension of Intergovernmental Lease agreement with The Board of Trustees of the University of Illinois for general medical and administrative space at Uptown Neighborhood Health Clinic, 845 W Wilson Ave</t>
+          <t>Speed limitation at W School St from N Ravenswood Ave to N Lincoln Ave - 20 mph</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>884E2AFA-3F62-EE11-BE6E-001DD80520D0</t>
+          <t>C783D96C-765D-EE11-BE6E-001DD8306758</t>
         </is>
       </c>
     </row>
@@ -49849,32 +49889,32 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>O2023-0004944</t>
+          <t>O2023-0004940</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Amended tax increment financing (TIF) redevelopment agreement with Celadon Construction Corporation NFP and other entities by excluding property at 1635-1643 W 47th St, modifying construction project scope, retaining property at 4700 S Ashland Ave and 4707 S Marshfield Ave</t>
+          <t>Extension of intergovernmental lease agreement with The Board of Trustees of University of Illinois for general medical services and preventative care space at Lower West Side Neighborhood Clinic, 1713 S Ashland Ave</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>4B7839FF-4662-EE11-BE6E-001DD80523DD</t>
+          <t>22C1D7D8-3D62-EE11-BE6E-001DD80520D0</t>
         </is>
       </c>
     </row>
@@ -49884,12 +49924,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>O2023-0005045</t>
+          <t>O2023-0004941</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Sale of vacant as-is City-owned property at 4301, 4309, and 4329 W Madison St to Garfield Park Wellness Support Corporation as part of collaborative development of Sankofa Wellness Center joining other private parcels</t>
+          <t>Extension of intergovernmental lease agreement with The Board of Trustees of University of Illinois for general medical and administrative space at Uptown Neighborhood Health Clinic, 845 W Wilson Ave</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -49909,7 +49949,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>808378E3-0E63-EE11-BE6E-001DD80523DD</t>
+          <t>884E2AFA-3F62-EE11-BE6E-001DD80520D0</t>
         </is>
       </c>
     </row>
@@ -49919,32 +49959,32 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>O2023-0005101</t>
+          <t>O2023-0004944</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Negotiated sale with redevelopment agreement of vacant fire station to The Black Fire Brigade Org. for development as instruction center for emergency medical services and firefighting curriculum for Chicago youth</t>
+          <t>Amended tax increment financing (TIF) redevelopment agreement with Celadon Construction Corporation NFP and other entities by excluding property at 1635-1643 W 47th St, modifying construction project scope, retaining property at 4700 S Ashland Ave and 4707 S Marshfield Ave</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>EBAC4D91-C063-EE11-BE6E-001DD805248F</t>
+          <t>4B7839FF-4662-EE11-BE6E-001DD80523DD</t>
         </is>
       </c>
     </row>
@@ -49954,12 +49994,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>O2023-0005102</t>
+          <t>O2023-0005045</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Intergovernmental agreement with Chicago Park District to transfer former Robert Jackson Park property at 4319 S Indiana Ave to City in exchange for replacement land to expand existing parks or for public purpose use</t>
+          <t>Sale of vacant as-is City-owned property at 4301, 4309, and 4329 W Madison St to Garfield Park Wellness Support Corporation as part of collaborative development of Sankofa Wellness Center joining other private parcels</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -49979,7 +50019,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>9E668154-C363-EE11-BE6E-001DD805248F</t>
+          <t>808378E3-0E63-EE11-BE6E-001DD80523DD</t>
         </is>
       </c>
     </row>
@@ -49989,12 +50029,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>O2023-0005105</t>
+          <t>O2023-0005101</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Transfer of funds within Committee on Ethics and Government Oversight for Year 2023</t>
+          <t>Negotiated sale with redevelopment agreement of vacant fire station to The Black Fire Brigade Org. for development as instruction center for emergency medical services and firefighting curriculum for Chicago youth</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -50004,17 +50044,17 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>D017F8D8-5E64-EE11-BE6E-001DD805248F</t>
+          <t>EBAC4D91-C063-EE11-BE6E-001DD805248F</t>
         </is>
       </c>
     </row>
@@ -50024,12 +50064,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>O2023-0005120</t>
+          <t>O2023-0005102</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Transfer of funds within Committee on Committees and Rules for year 2023</t>
+          <t>Intergovernmental agreement with Chicago Park District to transfer former Robert Jackson Park property at 4319 S Indiana Ave to City in exchange for replacement land to expand existing parks or for public purpose use</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -50039,17 +50079,17 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>6D249946-7967-EE11-8DEF-001DD80977D6</t>
+          <t>9E668154-C363-EE11-BE6E-001DD805248F</t>
         </is>
       </c>
     </row>
@@ -50059,12 +50099,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>O2023-0005140</t>
+          <t>O2023-0005105</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance 2024, as amended</t>
+          <t>Transfer of funds within Committee on Ethics and Government Oversight for Year 2023</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -50079,12 +50119,12 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
+          <t>D017F8D8-5E64-EE11-BE6E-001DD805248F</t>
         </is>
       </c>
     </row>
@@ -50094,17 +50134,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>O2023-0005140</t>
+          <t>O2023-0005120</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance 2024, as amended</t>
+          <t>Transfer of funds within Committee on Committees and Rules for year 2023</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -50114,12 +50154,12 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
+          <t>6D249946-7967-EE11-8DEF-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -50204,7 +50244,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Intergovernmental agreement with Chicago Transit Authority and Cook County for allocation of Motor Fuel Tax funds</t>
+          <t>Intergovernmental agreement with Chicago Transit Authority and Cook County for allocation of Motor Fuel Tax (MFT) funds</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -51259,7 +51299,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -51294,7 +51334,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -52659,17 +52699,17 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -52694,17 +52734,17 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -53599,22 +53639,22 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -53634,22 +53674,22 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All Way Stop</t>
+          <t>Traffic sign(s)/signal(s) at W Jackson Blvd and S Springfield Ave - All-Way Stop</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -53674,17 +53714,17 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -53709,17 +53749,17 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
@@ -53744,17 +53784,17 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -53779,17 +53819,17 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
@@ -53814,17 +53854,17 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -53849,17 +53889,17 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
@@ -54019,7 +54059,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Call for Chicago Departments of Transportation and Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Call for Chicago Department of Transportation and Department of Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -54334,7 +54374,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Call for hearing(s) each month on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -54759,12 +54799,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Refer</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Transportation and Public Way</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -54829,12 +54869,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Refer</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Committee on Transportation and Public Way</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -54864,7 +54904,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -55039,7 +55079,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -55074,7 +55114,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -55144,7 +55184,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -55179,7 +55219,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -55424,7 +55464,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -55459,7 +55499,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -56714,7 +56754,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Acquisition of property from Albertsons Companies, Inc. at 11414 S Halsted St including northwest corner of 115th and Halsted St to establish and operate migrant shelter, as amended with term limit amendment of Nov 7.</t>
+          <t>Acquisition of property at 11414 S Halsted St including northwest corner of 115th and Halsted St from Albertsons Companies, Inc. to establish and operate migrant shelter</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -56744,12 +56784,12 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>SO2023-0005294</t>
+          <t>SO2023-0005140</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Amendment of Municipal Code Titles 1, 2, 3, 4, 7, 8, 9, 10, 11 and 18 (2024 Municipal Code Management Ordinance)</t>
+          <t>Annual Appropriation Ordinance Year 2024, as amended</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -56769,7 +56809,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>F1D3D86C-326C-EE11-8DEF-001DD804E693</t>
+          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -56779,17 +56819,17 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SO2023-0005296</t>
+          <t>SO2023-0005140</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Expenditure of portion of Motor Fuel Tax funds allocated to City of Chicago for Year 2024</t>
+          <t>Annual Appropriation Ordinance Year 2024, as amended</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -56804,7 +56844,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>17CF46A2-336C-EE11-8DEF-001DD804E693</t>
+          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -56814,17 +56854,17 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SO2023-0005901</t>
+          <t>SO2023-0005140</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
+          <t>Annual Appropriation Ordinance Year 2024, as amended</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -56834,12 +56874,12 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>EA7A8800-FA82-EE11-8178-001DD8309BBD</t>
+          <t>C69F2CBA-3B68-EE11-9AE6-001DD80977D6</t>
         </is>
       </c>
     </row>
@@ -56849,32 +56889,32 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>SO2023-0005902</t>
+          <t>SO2023-0005294</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) - establish and amend</t>
+          <t>Amendment of Municipal Code Titles 1, 2, 3, 4, 7, 8, 9, 10, 11 and 18 (2024 Municipal Code Management Ordinance)</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>AD60D958-FB82-EE11-8178-001DD8309BBD</t>
+          <t>F1D3D86C-326C-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -56884,32 +56924,32 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>SO2023-0005903</t>
+          <t>SO2023-0005296</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Residential permit parking - establish and amend</t>
+          <t>Expenditure of portion of Motor Fuel Tax (MFT) funds allocated to City of Chicago for Year 2024</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>55BB4030-FC82-EE11-8178-001DD8309BBD</t>
+          <t>17CF46A2-336C-EE11-8DEF-001DD804E693</t>
         </is>
       </c>
     </row>
@@ -56919,12 +56959,12 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SO2023-0005904</t>
+          <t>SO2023-0005901</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Miscellaneous sign(s) - No Parking - establish and amend</t>
+          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -56944,7 +56984,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>42ADF003-FD82-EE11-8178-001DD8309BBD</t>
+          <t>EA7A8800-FA82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -56954,12 +56994,12 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SO2023-0005905</t>
+          <t>SO2023-0005902</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Parking meter(s) - establish</t>
+          <t>Traffic sign(s)/signal(s) - establish and amend</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -56979,7 +57019,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>B1DEA02B-FE82-EE11-8178-001DD8309BBD</t>
+          <t>AD60D958-FB82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -56989,17 +57029,17 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SOr2023-0002849</t>
+          <t>SO2023-0005903</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Payment of various small claims</t>
+          <t>Residential permit parking - establish and amend</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -57009,12 +57049,12 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+          <t>55BB4030-FC82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -57024,17 +57064,17 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>SOr2023-0002849</t>
+          <t>SO2023-0005904</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Payment of various small claims</t>
+          <t>Miscellaneous sign(s) - No Parking - establish and amend</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -57044,12 +57084,12 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+          <t>42ADF003-FD82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -57059,32 +57099,32 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>SR2023-0001267</t>
+          <t>SO2023-0005905</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+          <t>Parking meter(s) - establish</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Committee on Workforce Development</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+          <t>B1DEA02B-FE82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -57094,12 +57134,12 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>SR2023-0001267</t>
+          <t>SOr2023-0002849</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+          <t>Payment of various small claims</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -57114,12 +57154,12 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -57129,30 +57169,135 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
+          <t>SOr2023-0002849</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Payment of various small claims</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Chicago City Council</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>SR2023-0001267</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Chicago City Council</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>SR2023-0001267</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Adopted</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Committee on Workforce Development</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
           <t>SR2023-0005299</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr">
+      <c r="C692" t="inlineStr">
         <is>
           <t>Amendment of Regulations Governing Administration of Classification Plan and Employee Benefits for Classified Positions set forth in Annual Appropriation Ordinance (Salary Resolution) regarding salary schedules, automobile allowance, holidays, vacations and sick leave</t>
         </is>
       </c>
-      <c r="D689" t="inlineStr">
+      <c r="D692" t="inlineStr">
         <is>
           <t>Recommended to Pass</t>
         </is>
       </c>
-      <c r="E689" t="inlineStr">
+      <c r="E692" t="inlineStr">
         <is>
           <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
-      <c r="F689" t="inlineStr">
+      <c r="F692" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
+      <c r="G692" t="inlineStr">
         <is>
           <t>29147D18-386C-EE11-8DEF-001DD804E693</t>
         </is>
@@ -57464,7 +57609,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Call for monthly hearings on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Call for hearing(s) each month on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">

--- a/data_issues.xlsx
+++ b/data_issues.xlsx
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9207,17 +9207,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Or2023-0004271</t>
+          <t>O2024-0006750</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
+          <t>Handicapped Parking Permit No. 132353</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
+          <t>E84F5A5A-F3AB-EE11-BE36-001DD8094466</t>
         </is>
       </c>
     </row>
@@ -9227,17 +9227,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Or2023-0004507</t>
+          <t>Or2023-0004271</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Call for Chicago Department of Transportation and Department of Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
+          <t>Handicapped permit parking at 5257 S Hamlin Ave - amend</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
+          <t>6DB91630-4B53-EE11-BE6E-001DD8097665</t>
         </is>
       </c>
     </row>
@@ -9247,17 +9247,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R2023-0001022</t>
+          <t>Or2023-0004507</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Call for hearing(s) each month on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
+          <t>Call for Chicago Department of Transportation and Department of Assets, Information and Services to develop coordinating system for all work triggering roadway construction moratoriums or other qualifying works in the public way</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
+          <t>9BF96474-8558-EE11-BE6E-001DD80984F5</t>
         </is>
       </c>
     </row>
@@ -9267,17 +9267,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R2023-0002266</t>
+          <t>R2023-0001022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Congratulations extended to Lois Davis on 91st birthday</t>
+          <t>Call for hearing(s) each month on City's plans and processes in response to migrant and refugee arrivals to Chicago</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
+          <t>8F4109FB-A209-EE11-8F6D-001DD809B7F1</t>
         </is>
       </c>
     </row>
@@ -9287,17 +9287,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R2023-0003337</t>
+          <t>R2023-0002266</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Congratulations extended to Charles Hampton 85th birthday</t>
+          <t>Congratulations extended to Lois Davis on 91st birthday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
+          <t>07A42A3B-3A1B-EE11-8F6D-001DD806FAF8</t>
         </is>
       </c>
     </row>
@@ -9307,17 +9307,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R2023-0004106</t>
+          <t>R2023-0003337</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
+          <t>Congratulations extended to Charles Hampton 85th birthday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
+          <t>155A1E7E-D03A-EE11-BDF4-001DD8097F7D</t>
         </is>
       </c>
     </row>
@@ -9327,17 +9327,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R2023-0004537</t>
+          <t>R2023-0004106</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
+          <t>Congratulations extended to Carol Ross Barney on 50 years of service as architect and declaration of September 13, 2023 as "Carol Ross Barney Day" in Chicago</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
+          <t>A4FC72C8-7D51-EE11-BE6E-001DD80974AF</t>
         </is>
       </c>
     </row>
@@ -9347,17 +9347,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R2023-0004884</t>
+          <t>R2023-0004537</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
+          <t>Congratulations extended to Enrique Villa on 70th birthday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
+          <t>79166FC2-A959-EE11-BE6E-001DD809854D</t>
         </is>
       </c>
     </row>
@@ -9367,17 +9367,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R2023-0004946</t>
+          <t>R2023-0004884</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Declaration of October as Domestic Violence Awareness Month</t>
+          <t>Congratulations extended to Margaret McCarthy on 80th birthday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F4E16185-B962-EE11-BE6E-001DD8052E29</t>
+          <t>67D970E4-A860-EE11-BE6E-001DD8052E29</t>
         </is>
       </c>
     </row>
@@ -9387,17 +9387,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R2023-0005530</t>
+          <t>R2023-0004946</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tribute to late Brent R. Hamlet</t>
+          <t>Declaration of October as Domestic Violence Awareness Month</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
+          <t>F4E16185-B962-EE11-BE6E-001DD8052E29</t>
         </is>
       </c>
     </row>
@@ -9407,17 +9407,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R2023-0005886</t>
+          <t>R2023-0005530</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Declaration of first Sunday in December as "Toys for Tots Day" in Chicago</t>
+          <t>Tribute to late Brent R. Hamlet</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6D4FA8AD-2C82-EE11-8178-001DD83091CA</t>
+          <t>0ED9FE40-626F-EE11-8DEF-001DD804ECCD</t>
         </is>
       </c>
     </row>
@@ -9427,17 +9427,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R2023-0006166</t>
+          <t>R2023-0005886</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Congratulations extended to Byung Chan and Jung Min on 60th wedding anniversary</t>
+          <t>Declaration of first Sunday in December as "Toys for Tots Day" in Chicago</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4A80AAA9-5E94-EE11-8178-001DD83079AC</t>
+          <t>6D4FA8AD-2C82-EE11-8178-001DD83091CA</t>
         </is>
       </c>
     </row>
@@ -9447,17 +9447,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R2023-0006305</t>
+          <t>R2023-0006166</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Congratulations extended to Daniel Reyes on 65th birthday</t>
+          <t>Congratulations extended to Byung Chan and Jung Min on 60th wedding anniversary</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>D919DE58-3598-EE11-BE36-001DD83057A3</t>
+          <t>4A80AAA9-5E94-EE11-8178-001DD83079AC</t>
         </is>
       </c>
     </row>
@@ -9467,17 +9467,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SO2023-0001717</t>
+          <t>R2023-0006305</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
+          <t>Congratulations extended to Daniel Reyes on 65th birthday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
+          <t>D919DE58-3598-EE11-BE36-001DD83057A3</t>
         </is>
       </c>
     </row>
@@ -9487,17 +9487,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SO2023-0001994</t>
+          <t>SO2023-0001717</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vehicle weight limitations - 5 tons - establish</t>
+          <t xml:space="preserve">Honorary street designation as "Honorary Larry Chase Way" </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CAFA74C1-4511-EE11-8F6C-001DD806D3F2</t>
+          <t>56BFAFDC-C110-EE11-8F6C-001DD806D2E1</t>
         </is>
       </c>
     </row>
@@ -9507,15 +9507,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>SO2023-0001994</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Vehicle weight limitations - 5 tons - establish</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CAFA74C1-4511-EE11-8F6C-001DD806D3F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>SO2023-0005959</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Proposed Substitute of Amendment of vacation of conditional public alley(s) in area bounded by W George St, W Wolfram St, N Nordica Ave and N Sayre Ave for Nordica Property LLC release from use restrictions</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>F96D056B-DA83-EE11-8178-001DD83091CA</t>
         </is>
@@ -34542,7 +34562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G794"/>
+  <dimension ref="A1:G796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35088,17 +35108,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Recommended Do Not Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Committee on Finance</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -35123,17 +35143,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended Do Not Pass</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Finance</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -36943,17 +36963,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -37013,17 +37033,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -37643,12 +37663,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Refer</t>
+          <t>Recommend to Pass</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -37678,12 +37698,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Refer</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -37713,7 +37733,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -37748,7 +37768,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Recommend to Pass</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -39218,17 +39238,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Substituted-Aggregated</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -39253,17 +39273,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Substituted-Aggregated</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -40409,7 +40429,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Signed by Mayor</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -40419,7 +40439,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -40444,7 +40464,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Signed by Mayor</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -40454,7 +40474,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -42929,17 +42949,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -42964,17 +42984,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -43069,17 +43089,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -43104,17 +43124,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -43279,17 +43299,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -43314,17 +43334,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -43419,17 +43439,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -43454,17 +43474,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -43489,17 +43509,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -43524,17 +43544,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -43699,17 +43719,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -43734,17 +43754,17 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -44259,17 +44279,17 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -44294,17 +44314,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -44539,17 +44559,17 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -44574,17 +44594,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -44609,17 +44629,17 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -44644,17 +44664,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -44679,17 +44699,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -44714,17 +44734,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -44819,17 +44839,17 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -44854,17 +44874,17 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -45064,17 +45084,17 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -45099,17 +45119,17 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -45204,17 +45224,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -45239,17 +45259,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -45274,17 +45294,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -45309,17 +45329,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -45449,17 +45469,17 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -45484,17 +45504,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -45519,17 +45539,17 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -45554,17 +45574,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -45729,17 +45749,17 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -45764,17 +45784,17 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -45869,17 +45889,17 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -45904,17 +45924,17 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -46079,17 +46099,17 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -46114,17 +46134,17 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -46569,17 +46589,17 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Committee on Workforce Development</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -46604,17 +46624,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Workforce Development</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -48005,17 +48025,17 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -48040,17 +48060,17 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -51540,7 +51560,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -51575,7 +51595,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -56300,17 +56320,17 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -56335,17 +56355,17 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
@@ -57385,17 +57405,17 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -57420,17 +57440,17 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
@@ -57525,17 +57545,17 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
@@ -57560,17 +57580,17 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -57595,17 +57615,17 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Committee on Pedestrian and Traffic Safety</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -57630,17 +57650,17 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Referred</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Pedestrian and Traffic Safety</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -58820,7 +58840,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -58830,7 +58850,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -58855,7 +58875,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -58865,7 +58885,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -58925,12 +58945,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Refer</t>
+          <t>Introduce</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Committee on Transportation and Public Way</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -58995,12 +59015,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Introduce</t>
+          <t>Refer</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Transportation and Public Way</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -59345,7 +59365,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -59380,7 +59400,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -59590,7 +59610,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Amended</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -59625,7 +59645,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -60220,7 +60240,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -60230,7 +60250,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -60255,7 +60275,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -60265,7 +60285,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -60395,7 +60415,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -60405,7 +60425,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -60430,7 +60450,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -60440,7 +60460,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -60465,7 +60485,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -60500,7 +60520,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -60850,7 +60870,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -60860,7 +60880,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -60885,7 +60905,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -60895,7 +60915,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -60920,7 +60940,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -60930,7 +60950,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
@@ -60955,7 +60975,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -60965,7 +60985,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -61515,7 +61535,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -61525,7 +61545,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -61550,7 +61570,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -61560,7 +61580,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -61690,7 +61710,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -61700,7 +61720,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -61725,7 +61745,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -61735,7 +61755,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -61830,17 +61850,17 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Housing and Real Estate</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -61865,17 +61885,17 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>Committee on Housing and Real Estate</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -61890,17 +61910,17 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>SO2023-0005901</t>
+          <t>SO2023-0005883</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
+          <t>Amendment of Municipal Code Titles 2 and 6 regarding notification requirements to employers of proposed civil action for alleged paid leave violations</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>Introduced</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -61910,12 +61930,12 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>EA7A8800-FA82-EE11-8178-001DD8309BBD</t>
+          <t>60E1175B-4F7F-EE11-8178-001DD8095BBA</t>
         </is>
       </c>
     </row>
@@ -61925,12 +61945,12 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>SO2023-0005902</t>
+          <t>SO2023-0005901</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Traffic sign(s)/signal(s) - establish and amend</t>
+          <t>Parking prohibited at all times (except for disabled) - establish and amend</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -61950,7 +61970,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>AD60D958-FB82-EE11-8178-001DD8309BBD</t>
+          <t>EA7A8800-FA82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -61960,12 +61980,12 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>SO2023-0005903</t>
+          <t>SO2023-0005902</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Residential permit parking - establish and amend</t>
+          <t>Traffic sign(s)/signal(s) - establish and amend</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -61985,7 +62005,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>55BB4030-FC82-EE11-8178-001DD8309BBD</t>
+          <t>AD60D958-FB82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -61995,12 +62015,12 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>SO2023-0005904</t>
+          <t>SO2023-0005903</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Miscellaneous sign(s) - No Parking - establish and amend</t>
+          <t>Residential permit parking - establish and amend</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -62020,7 +62040,7 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>42ADF003-FD82-EE11-8178-001DD8309BBD</t>
+          <t>55BB4030-FC82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -62030,12 +62050,12 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>SO2023-0005905</t>
+          <t>SO2023-0005904</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Parking meter(s) - establish</t>
+          <t>Miscellaneous sign(s) - No Parking - establish and amend</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -62055,7 +62075,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>B1DEA02B-FE82-EE11-8178-001DD8309BBD</t>
+          <t>42ADF003-FD82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -62065,17 +62085,17 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SO2023-0005937</t>
+          <t>SO2023-0005905</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Cultural Affairs and Special Events , Department of Family and Support Services, and Chicago Police Department</t>
+          <t>Parking meter(s) - establish</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Introduced</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -62085,12 +62105,12 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>7FC90646-3383-EE11-8178-001DD83091CA</t>
+          <t>B1DEA02B-FE82-EE11-8178-001DD8309BBD</t>
         </is>
       </c>
     </row>
@@ -62110,17 +62130,17 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>Recommended to Pass</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>Committee on Budget and Government Operations</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -62135,32 +62155,32 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>SO2023-0005959</t>
+          <t>SO2023-0005937</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Proposed Substitute of Amendment of vacation of conditional public alley(s) in area bounded by W George St, W Wolfram St, N Nordica Ave and N Sayre Ave for Nordica Property LLC release from use restrictions</t>
+          <t>Annual Appropriation Ordinance Year 2023 amendment within Fund No. 925 for Department of Cultural Affairs and Special Events , Department of Family and Support Services, and Chicago Police Department</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Recommended to Pass</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Budget and Government Operations</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>F96D056B-DA83-EE11-8178-001DD83091CA</t>
+          <t>7FC90646-3383-EE11-8178-001DD83091CA</t>
         </is>
       </c>
     </row>
@@ -62170,12 +62190,12 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>SOr2023-0002849</t>
+          <t>SO2023-0005959</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Payment of various small claims</t>
+          <t>Proposed Substitute of Amendment of vacation of conditional public alley(s) in area bounded by W George St, W Wolfram St, N Nordica Ave and N Sayre Ave for Nordica Property LLC release from use restrictions</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -62190,12 +62210,12 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
+          <t>F96D056B-DA83-EE11-8178-001DD83091CA</t>
         </is>
       </c>
     </row>
@@ -62240,32 +62260,32 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>SR2023-0001267</t>
+          <t>SOr2023-0002849</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+          <t>Payment of various small claims</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>Adopted</t>
+          <t>Substituted</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>Committee on Workforce Development</t>
+          <t>Chicago City Council</t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+          <t>0B91C9F7-7525-EE11-9CBD-001DD804E11C</t>
         </is>
       </c>
     </row>
@@ -62285,17 +62305,17 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>Substituted</t>
+          <t>Adopted</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>Chicago City Council</t>
+          <t>Committee on Workforce Development</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -62310,30 +62330,100 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
+          <t>SR2023-0001267</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Expression of solidarity with International Brotherhood of Teamsters for fair contract negotiations with United Parcel Service</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Substituted</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>Chicago City Council</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>EF07F79D-5D10-EE11-8F6C-001DD806D641</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>SR2023-0005289</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Call on federal government to grant Parole in Place status and issue work permits to new migrants and long-term contributing immigrant workers</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Recommended to Pass</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>Committee on Immigrant and Refugee Rights</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>9C2AB268-296A-EE11-9AE6-001DD80977D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
           <t>SR2023-0006422</t>
         </is>
       </c>
-      <c r="C794" t="inlineStr">
+      <c r="C796" t="inlineStr">
         <is>
           <t>Substitute Expression of support for United Nations Resolution 377 known as "Uniting for Peace"</t>
         </is>
       </c>
-      <c r="D794" t="inlineStr">
+      <c r="D796" t="inlineStr">
         <is>
           <t>Substituted</t>
         </is>
       </c>
-      <c r="E794" t="inlineStr">
+      <c r="E796" t="inlineStr">
         <is>
           <t>Chicago City Council</t>
         </is>
       </c>
-      <c r="F794" t="inlineStr">
+      <c r="F796" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="G794" t="inlineStr">
+      <c r="G796" t="inlineStr">
         <is>
           <t>FD87A2F1-DB99-EE11-BE36-001DD83057A3</t>
         </is>
